--- a/Spring/Spring.xlsx
+++ b/Spring/Spring.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="2"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Spring container" sheetId="1" r:id="rId1"/>
     <sheet name=" IoC vs. DI" sheetId="2" r:id="rId2"/>
     <sheet name="Bean Scope" sheetId="3" r:id="rId3"/>
+    <sheet name="Spring Bean Life Cycle Tutorial" sheetId="4" r:id="rId4"/>
+    <sheet name="Spring BeanPostProcessor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>1. Inversion of control as a design guideline serves the following purposes:</t>
   </si>
@@ -884,13 +886,2130 @@
   </si>
   <si>
     <t>- In bean configuration file</t>
+  </si>
+  <si>
+    <r>
+      <t>Spring framework provides following </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>4 ways for controlling life cycle events</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> of bean</t>
+    </r>
+  </si>
+  <si>
+    <t>1. InitializingBean and DisposableBean callback interfaces</t>
+  </si>
+  <si>
+    <t>2. Other Aware interfaces for specific behavior</t>
+  </si>
+  <si>
+    <t>3. custom init() and destroy() methods in bean configuration file</t>
+  </si>
+  <si>
+    <t>4. @PostConstruct and @PreDestroy annotations</t>
+  </si>
+  <si>
+    <t>InitializingBean and DisposableBean callback interfaces</t>
+  </si>
+  <si>
+    <t>Other Aware interfaces for specific behavior</t>
+  </si>
+  <si>
+    <r>
+      <t>package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>com.howtodoinjava.task;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.beans.BeansException;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.beans.factory.BeanClassLoaderAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.beans.factory.BeanFactory;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.beans.factory.BeanFactoryAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.beans.factory.BeanNameAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.ApplicationContext;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.ApplicationContextAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.ApplicationEventPublisher;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.ApplicationEventPublisherAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.MessageSource;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.MessageSourceAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.ResourceLoaderAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.context.weaving.LoadTimeWeaverAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.core.io.ResourceLoader;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.instrument.classloading.LoadTimeWeaver;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.jmx.export.notification.NotificationPublisher;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>org.springframework.jmx.export.notification.NotificationPublisherAware;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">BemoBeanTypeTwo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ApplicationContextAware,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ApplicationEventPublisherAware, BeanClassLoaderAware, BeanFactoryAware,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>BeanNameAware, LoadTimeWeaverAware, MessageSourceAware,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>NotificationPublisherAware, ResourceLoaderAware</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@Override</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setResourceLoader(ResourceLoader arg0) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>// TODO Auto-generated method stub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setNotificationPublisher(NotificationPublisher arg0) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setMessageSource(MessageSource arg0) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setLoadTimeWeaver(LoadTimeWeaver arg0) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setBeanName(String arg0) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">setBeanFactory(BeanFactory arg0) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>BeansException {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setBeanClassLoader(ClassLoader arg0) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setApplicationEventPublisher(ApplicationEventPublisher arg0) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setApplicationContext(ApplicationContext arg0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>BeansException {</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom init() and destroy() methods in bean configuration file</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"demoBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.task.DemoBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>init-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"customInit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>destroy-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"customDestroy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>default-init-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"customInit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>default-destroy-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"customDestroy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">&gt;        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"demoBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.task.DemoBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">BemoBeanTypeThree </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">customInit() </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>System.out.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Method customInit() invoked..."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">customDestroy() </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>System.out.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Method customDestroy() invoked..."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>@PostConstruct and @PreDestroy annotations</t>
+  </si>
+  <si>
+    <t>     </t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>javax.annotation.PostConstruct;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>javax.annotation.PreDestroy;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">BemoBeanTypeFour </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@PostConstruct</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@PreDestroy</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,13 +3083,48 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008200"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -994,7 +3148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1015,6 +3169,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2012,6 +4184,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>114738</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291840" y="1303020"/>
+          <a:ext cx="5052498" cy="4336156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>168154</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="6187440"/>
+          <a:ext cx="5928874" cy="4183743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2602,7 +4855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B28:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
@@ -2630,4 +4883,3578 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AT177"/>
+  <sheetViews>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="AG176" sqref="AG176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="D61" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="D63" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="D64" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+    </row>
+    <row r="65" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+    </row>
+    <row r="66" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+    </row>
+    <row r="67" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D67" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+    </row>
+    <row r="68" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D68" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+    </row>
+    <row r="69" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D69" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+    </row>
+    <row r="70" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D70" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+    </row>
+    <row r="71" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D71" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+    </row>
+    <row r="72" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D72" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+    </row>
+    <row r="73" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D73" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="14"/>
+    </row>
+    <row r="74" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+    </row>
+    <row r="75" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D75" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="14"/>
+      <c r="AD75" s="14"/>
+    </row>
+    <row r="76" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D76" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="14"/>
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+    </row>
+    <row r="77" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D77" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AC77" s="14"/>
+      <c r="AD77" s="14"/>
+    </row>
+    <row r="78" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D78" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="14"/>
+    </row>
+    <row r="79" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D79" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+    </row>
+    <row r="80" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D80" s="15"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
+      <c r="AC80" s="14"/>
+      <c r="AD80" s="14"/>
+    </row>
+    <row r="81" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D81" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
+      <c r="AC81" s="14"/>
+      <c r="AD81" s="14"/>
+    </row>
+    <row r="82" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D82" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+    </row>
+    <row r="83" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D83" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14"/>
+    </row>
+    <row r="84" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D84" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="14"/>
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="14"/>
+      <c r="AC84" s="14"/>
+      <c r="AD84" s="14"/>
+    </row>
+    <row r="85" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D85" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="14"/>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="14"/>
+    </row>
+    <row r="86" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D86" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="14"/>
+    </row>
+    <row r="87" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D87" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="14"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="14"/>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="14"/>
+      <c r="AC87" s="14"/>
+      <c r="AD87" s="14"/>
+    </row>
+    <row r="88" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D88" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="14"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="14"/>
+      <c r="Z88" s="14"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="14"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="14"/>
+    </row>
+    <row r="89" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D89" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
+      <c r="AC89" s="14"/>
+      <c r="AD89" s="14"/>
+    </row>
+    <row r="90" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D90" s="15"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="14"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="14"/>
+      <c r="Z90" s="14"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="14"/>
+      <c r="AC90" s="14"/>
+      <c r="AD90" s="14"/>
+    </row>
+    <row r="91" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D91" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
+      <c r="AC91" s="14"/>
+      <c r="AD91" s="14"/>
+    </row>
+    <row r="92" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D92" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="14"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+    </row>
+    <row r="93" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D93" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="14"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="14"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="14"/>
+      <c r="AC93" s="14"/>
+      <c r="AD93" s="14"/>
+    </row>
+    <row r="94" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D94" s="15"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="14"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="14"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="14"/>
+      <c r="AC94" s="14"/>
+      <c r="AD94" s="14"/>
+    </row>
+    <row r="95" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D95" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="14"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="14"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="14"/>
+      <c r="AC95" s="14"/>
+      <c r="AD95" s="14"/>
+    </row>
+    <row r="96" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D96" s="15"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="14"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="14"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="14"/>
+      <c r="AD96" s="14"/>
+    </row>
+    <row r="97" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D97" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="14"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="14"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="14"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
+      <c r="AC97" s="14"/>
+      <c r="AD97" s="14"/>
+    </row>
+    <row r="98" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D98" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="14"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="14"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="14"/>
+      <c r="Z98" s="14"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="14"/>
+      <c r="AC98" s="14"/>
+      <c r="AD98" s="14"/>
+    </row>
+    <row r="99" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D99" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="14"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="14"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="14"/>
+      <c r="Y99" s="14"/>
+      <c r="Z99" s="14"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="14"/>
+      <c r="AC99" s="14"/>
+      <c r="AD99" s="14"/>
+    </row>
+    <row r="100" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D100" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="14"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="14"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="14"/>
+      <c r="Y100" s="14"/>
+      <c r="Z100" s="14"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="14"/>
+      <c r="AC100" s="14"/>
+      <c r="AD100" s="14"/>
+    </row>
+    <row r="101" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D101" s="15"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="14"/>
+      <c r="AC101" s="14"/>
+      <c r="AD101" s="14"/>
+    </row>
+    <row r="102" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D102" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
+      <c r="R102" s="14"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="14"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="14"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="14"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="14"/>
+      <c r="AC102" s="14"/>
+      <c r="AD102" s="14"/>
+    </row>
+    <row r="103" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D103" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14"/>
+      <c r="R103" s="14"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="14"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="14"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="14"/>
+      <c r="Y103" s="14"/>
+      <c r="Z103" s="14"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="14"/>
+      <c r="AC103" s="14"/>
+      <c r="AD103" s="14"/>
+    </row>
+    <row r="104" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D104" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+      <c r="R104" s="14"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="14"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="14"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="14"/>
+      <c r="Y104" s="14"/>
+      <c r="Z104" s="14"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="14"/>
+      <c r="AC104" s="14"/>
+      <c r="AD104" s="14"/>
+    </row>
+    <row r="105" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D105" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="14"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="14"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="14"/>
+      <c r="Y105" s="14"/>
+      <c r="Z105" s="14"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="14"/>
+      <c r="AC105" s="14"/>
+      <c r="AD105" s="14"/>
+    </row>
+    <row r="106" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D106" s="15"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="14"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="14"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="14"/>
+      <c r="Y106" s="14"/>
+      <c r="Z106" s="14"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="14"/>
+      <c r="AC106" s="14"/>
+      <c r="AD106" s="14"/>
+    </row>
+    <row r="107" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D107" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="14"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="14"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="14"/>
+      <c r="Y107" s="14"/>
+      <c r="Z107" s="14"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="14"/>
+      <c r="AC107" s="14"/>
+      <c r="AD107" s="14"/>
+    </row>
+    <row r="108" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D108" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="14"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="14"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="14"/>
+      <c r="Y108" s="14"/>
+      <c r="Z108" s="14"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="14"/>
+      <c r="AC108" s="14"/>
+      <c r="AD108" s="14"/>
+    </row>
+    <row r="109" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D109" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="14"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="14"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="14"/>
+      <c r="Y109" s="14"/>
+      <c r="Z109" s="14"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="14"/>
+      <c r="AC109" s="14"/>
+      <c r="AD109" s="14"/>
+    </row>
+    <row r="110" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D110" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="14"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="14"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="14"/>
+      <c r="Y110" s="14"/>
+      <c r="Z110" s="14"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="14"/>
+      <c r="AC110" s="14"/>
+      <c r="AD110" s="14"/>
+    </row>
+    <row r="111" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D111" s="15"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="14"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="14"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="14"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="14"/>
+      <c r="AC111" s="14"/>
+      <c r="AD111" s="14"/>
+    </row>
+    <row r="112" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D112" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="14"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="14"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="14"/>
+      <c r="Z112" s="14"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="14"/>
+      <c r="AC112" s="14"/>
+      <c r="AD112" s="14"/>
+    </row>
+    <row r="113" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D113" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="14"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="14"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="14"/>
+      <c r="Z113" s="14"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="14"/>
+      <c r="AC113" s="14"/>
+      <c r="AD113" s="14"/>
+    </row>
+    <row r="114" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D114" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="14"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="14"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="14"/>
+      <c r="Z114" s="14"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
+      <c r="AC114" s="14"/>
+      <c r="AD114" s="14"/>
+    </row>
+    <row r="115" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D115" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+      <c r="T115" s="14"/>
+      <c r="U115" s="14"/>
+      <c r="V115" s="14"/>
+      <c r="W115" s="14"/>
+      <c r="X115" s="14"/>
+      <c r="Y115" s="14"/>
+      <c r="Z115" s="14"/>
+      <c r="AA115" s="14"/>
+      <c r="AB115" s="14"/>
+      <c r="AC115" s="14"/>
+      <c r="AD115" s="14"/>
+    </row>
+    <row r="116" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D116" s="15"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14"/>
+      <c r="R116" s="14"/>
+      <c r="S116" s="14"/>
+      <c r="T116" s="14"/>
+      <c r="U116" s="14"/>
+      <c r="V116" s="14"/>
+      <c r="W116" s="14"/>
+      <c r="X116" s="14"/>
+      <c r="Y116" s="14"/>
+      <c r="Z116" s="14"/>
+      <c r="AA116" s="14"/>
+      <c r="AB116" s="14"/>
+      <c r="AC116" s="14"/>
+      <c r="AD116" s="14"/>
+    </row>
+    <row r="117" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D117" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14"/>
+      <c r="R117" s="14"/>
+      <c r="S117" s="14"/>
+      <c r="T117" s="14"/>
+      <c r="U117" s="14"/>
+      <c r="V117" s="14"/>
+      <c r="W117" s="14"/>
+      <c r="X117" s="14"/>
+      <c r="Y117" s="14"/>
+      <c r="Z117" s="14"/>
+      <c r="AA117" s="14"/>
+      <c r="AB117" s="14"/>
+      <c r="AC117" s="14"/>
+      <c r="AD117" s="14"/>
+    </row>
+    <row r="118" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D118" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="T118" s="14"/>
+      <c r="U118" s="14"/>
+      <c r="V118" s="14"/>
+      <c r="W118" s="14"/>
+      <c r="X118" s="14"/>
+      <c r="Y118" s="14"/>
+      <c r="Z118" s="14"/>
+      <c r="AA118" s="14"/>
+      <c r="AB118" s="14"/>
+      <c r="AC118" s="14"/>
+      <c r="AD118" s="14"/>
+    </row>
+    <row r="119" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D119" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="14"/>
+      <c r="R119" s="14"/>
+      <c r="S119" s="14"/>
+      <c r="T119" s="14"/>
+      <c r="U119" s="14"/>
+      <c r="V119" s="14"/>
+      <c r="W119" s="14"/>
+      <c r="X119" s="14"/>
+      <c r="Y119" s="14"/>
+      <c r="Z119" s="14"/>
+      <c r="AA119" s="14"/>
+      <c r="AB119" s="14"/>
+      <c r="AC119" s="14"/>
+      <c r="AD119" s="14"/>
+    </row>
+    <row r="120" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D120" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="14"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="14"/>
+      <c r="T120" s="14"/>
+      <c r="U120" s="14"/>
+      <c r="V120" s="14"/>
+      <c r="W120" s="14"/>
+      <c r="X120" s="14"/>
+      <c r="Y120" s="14"/>
+      <c r="Z120" s="14"/>
+      <c r="AA120" s="14"/>
+      <c r="AB120" s="14"/>
+      <c r="AC120" s="14"/>
+      <c r="AD120" s="14"/>
+    </row>
+    <row r="121" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D121" s="15"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="14"/>
+      <c r="Q121" s="14"/>
+      <c r="R121" s="14"/>
+      <c r="S121" s="14"/>
+      <c r="T121" s="14"/>
+      <c r="U121" s="14"/>
+      <c r="V121" s="14"/>
+      <c r="W121" s="14"/>
+      <c r="X121" s="14"/>
+      <c r="Y121" s="14"/>
+      <c r="Z121" s="14"/>
+      <c r="AA121" s="14"/>
+      <c r="AB121" s="14"/>
+      <c r="AC121" s="14"/>
+      <c r="AD121" s="14"/>
+    </row>
+    <row r="122" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D122" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
+      <c r="R122" s="14"/>
+      <c r="S122" s="14"/>
+      <c r="T122" s="14"/>
+      <c r="U122" s="14"/>
+      <c r="V122" s="14"/>
+      <c r="W122" s="14"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="14"/>
+      <c r="Z122" s="14"/>
+      <c r="AA122" s="14"/>
+      <c r="AB122" s="14"/>
+      <c r="AC122" s="14"/>
+      <c r="AD122" s="14"/>
+    </row>
+    <row r="123" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D123" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="14"/>
+      <c r="R123" s="14"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="14"/>
+      <c r="U123" s="14"/>
+      <c r="V123" s="14"/>
+      <c r="W123" s="14"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="14"/>
+      <c r="Z123" s="14"/>
+      <c r="AA123" s="14"/>
+      <c r="AB123" s="14"/>
+      <c r="AC123" s="14"/>
+      <c r="AD123" s="14"/>
+    </row>
+    <row r="124" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D124" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="14"/>
+      <c r="R124" s="14"/>
+      <c r="S124" s="14"/>
+      <c r="T124" s="14"/>
+      <c r="U124" s="14"/>
+      <c r="V124" s="14"/>
+      <c r="W124" s="14"/>
+      <c r="X124" s="14"/>
+      <c r="Y124" s="14"/>
+      <c r="Z124" s="14"/>
+      <c r="AA124" s="14"/>
+      <c r="AB124" s="14"/>
+      <c r="AC124" s="14"/>
+      <c r="AD124" s="14"/>
+    </row>
+    <row r="125" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D125" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="14"/>
+      <c r="R125" s="14"/>
+      <c r="S125" s="14"/>
+      <c r="T125" s="14"/>
+      <c r="U125" s="14"/>
+      <c r="V125" s="14"/>
+      <c r="W125" s="14"/>
+      <c r="X125" s="14"/>
+      <c r="Y125" s="14"/>
+      <c r="Z125" s="14"/>
+      <c r="AA125" s="14"/>
+      <c r="AB125" s="14"/>
+      <c r="AC125" s="14"/>
+      <c r="AD125" s="14"/>
+    </row>
+    <row r="126" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D126" s="15"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="14"/>
+      <c r="R126" s="14"/>
+      <c r="S126" s="14"/>
+      <c r="T126" s="14"/>
+      <c r="U126" s="14"/>
+      <c r="V126" s="14"/>
+      <c r="W126" s="14"/>
+      <c r="X126" s="14"/>
+      <c r="Y126" s="14"/>
+      <c r="Z126" s="14"/>
+      <c r="AA126" s="14"/>
+      <c r="AB126" s="14"/>
+      <c r="AC126" s="14"/>
+      <c r="AD126" s="14"/>
+    </row>
+    <row r="127" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D127" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="14"/>
+      <c r="R127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="14"/>
+      <c r="U127" s="14"/>
+      <c r="V127" s="14"/>
+      <c r="W127" s="14"/>
+      <c r="X127" s="14"/>
+      <c r="Y127" s="14"/>
+      <c r="Z127" s="14"/>
+      <c r="AA127" s="14"/>
+      <c r="AB127" s="14"/>
+      <c r="AC127" s="14"/>
+      <c r="AD127" s="14"/>
+    </row>
+    <row r="128" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D128" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="14"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="14"/>
+      <c r="U128" s="14"/>
+      <c r="V128" s="14"/>
+      <c r="W128" s="14"/>
+      <c r="X128" s="14"/>
+      <c r="Y128" s="14"/>
+      <c r="Z128" s="14"/>
+      <c r="AA128" s="14"/>
+      <c r="AB128" s="14"/>
+      <c r="AC128" s="14"/>
+      <c r="AD128" s="14"/>
+    </row>
+    <row r="129" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D129" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="14"/>
+      <c r="U129" s="14"/>
+      <c r="V129" s="14"/>
+      <c r="W129" s="14"/>
+      <c r="X129" s="14"/>
+      <c r="Y129" s="14"/>
+      <c r="Z129" s="14"/>
+      <c r="AA129" s="14"/>
+      <c r="AB129" s="14"/>
+      <c r="AC129" s="14"/>
+      <c r="AD129" s="14"/>
+    </row>
+    <row r="130" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D130" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="14"/>
+      <c r="R130" s="14"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="14"/>
+      <c r="U130" s="14"/>
+      <c r="V130" s="14"/>
+      <c r="W130" s="14"/>
+      <c r="X130" s="14"/>
+      <c r="Y130" s="14"/>
+      <c r="Z130" s="14"/>
+      <c r="AA130" s="14"/>
+      <c r="AB130" s="14"/>
+      <c r="AC130" s="14"/>
+      <c r="AD130" s="14"/>
+    </row>
+    <row r="131" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D131" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="14"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="14"/>
+      <c r="U131" s="14"/>
+      <c r="V131" s="14"/>
+      <c r="W131" s="14"/>
+      <c r="X131" s="14"/>
+      <c r="Y131" s="14"/>
+      <c r="Z131" s="14"/>
+      <c r="AA131" s="14"/>
+      <c r="AB131" s="14"/>
+      <c r="AC131" s="14"/>
+      <c r="AD131" s="14"/>
+    </row>
+    <row r="132" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D132" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
+      <c r="T132" s="14"/>
+      <c r="U132" s="14"/>
+      <c r="V132" s="14"/>
+      <c r="W132" s="14"/>
+      <c r="X132" s="14"/>
+      <c r="Y132" s="14"/>
+      <c r="Z132" s="14"/>
+      <c r="AA132" s="14"/>
+      <c r="AB132" s="14"/>
+      <c r="AC132" s="14"/>
+      <c r="AD132" s="14"/>
+    </row>
+    <row r="134" spans="2:46" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D135" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="14"/>
+      <c r="R135" s="14"/>
+      <c r="S135" s="14"/>
+      <c r="T135" s="14"/>
+      <c r="U135" s="14"/>
+      <c r="V135" s="14"/>
+      <c r="W135" s="14"/>
+      <c r="X135" s="14"/>
+      <c r="Y135" s="14"/>
+      <c r="Z135" s="14"/>
+      <c r="AA135" s="14"/>
+      <c r="AB135" s="14"/>
+      <c r="AC135" s="14"/>
+      <c r="AD135" s="14"/>
+      <c r="AE135" s="14"/>
+      <c r="AF135" s="14"/>
+      <c r="AG135" s="14"/>
+      <c r="AH135" s="14"/>
+      <c r="AI135" s="14"/>
+      <c r="AJ135" s="14"/>
+      <c r="AK135" s="14"/>
+      <c r="AL135" s="14"/>
+      <c r="AM135" s="14"/>
+      <c r="AN135" s="14"/>
+      <c r="AO135" s="14"/>
+      <c r="AP135" s="14"/>
+      <c r="AQ135" s="14"/>
+      <c r="AR135" s="14"/>
+      <c r="AS135" s="14"/>
+      <c r="AT135" s="14"/>
+    </row>
+    <row r="136" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D136" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="14"/>
+      <c r="U136" s="14"/>
+      <c r="V136" s="14"/>
+      <c r="W136" s="14"/>
+      <c r="X136" s="14"/>
+      <c r="Y136" s="14"/>
+      <c r="Z136" s="14"/>
+      <c r="AA136" s="14"/>
+      <c r="AB136" s="14"/>
+      <c r="AC136" s="14"/>
+      <c r="AD136" s="14"/>
+      <c r="AE136" s="14"/>
+      <c r="AF136" s="14"/>
+      <c r="AG136" s="14"/>
+      <c r="AH136" s="14"/>
+      <c r="AI136" s="14"/>
+      <c r="AJ136" s="14"/>
+      <c r="AK136" s="14"/>
+      <c r="AL136" s="14"/>
+      <c r="AM136" s="14"/>
+      <c r="AN136" s="14"/>
+      <c r="AO136" s="14"/>
+      <c r="AP136" s="14"/>
+      <c r="AQ136" s="14"/>
+      <c r="AR136" s="14"/>
+      <c r="AS136" s="14"/>
+      <c r="AT136" s="14"/>
+    </row>
+    <row r="137" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D137" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="14"/>
+      <c r="U137" s="14"/>
+      <c r="V137" s="14"/>
+      <c r="W137" s="14"/>
+      <c r="X137" s="14"/>
+      <c r="Y137" s="14"/>
+      <c r="Z137" s="14"/>
+      <c r="AA137" s="14"/>
+      <c r="AB137" s="14"/>
+      <c r="AC137" s="14"/>
+      <c r="AD137" s="14"/>
+      <c r="AE137" s="14"/>
+      <c r="AF137" s="14"/>
+      <c r="AG137" s="14"/>
+      <c r="AH137" s="14"/>
+      <c r="AI137" s="14"/>
+      <c r="AJ137" s="14"/>
+      <c r="AK137" s="14"/>
+      <c r="AL137" s="14"/>
+      <c r="AM137" s="14"/>
+      <c r="AN137" s="14"/>
+      <c r="AO137" s="14"/>
+      <c r="AP137" s="14"/>
+      <c r="AQ137" s="14"/>
+      <c r="AR137" s="14"/>
+      <c r="AS137" s="14"/>
+      <c r="AT137" s="14"/>
+    </row>
+    <row r="139" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D139" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="14"/>
+      <c r="U139" s="14"/>
+      <c r="V139" s="14"/>
+      <c r="W139" s="14"/>
+      <c r="X139" s="14"/>
+      <c r="Y139" s="14"/>
+      <c r="Z139" s="14"/>
+      <c r="AA139" s="14"/>
+      <c r="AB139" s="14"/>
+      <c r="AC139" s="14"/>
+      <c r="AD139" s="14"/>
+      <c r="AE139" s="14"/>
+    </row>
+    <row r="140" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D140" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14"/>
+      <c r="S140" s="14"/>
+      <c r="T140" s="14"/>
+      <c r="U140" s="14"/>
+      <c r="V140" s="14"/>
+      <c r="W140" s="14"/>
+      <c r="X140" s="14"/>
+      <c r="Y140" s="14"/>
+      <c r="Z140" s="14"/>
+      <c r="AA140" s="14"/>
+      <c r="AB140" s="14"/>
+      <c r="AC140" s="14"/>
+      <c r="AD140" s="14"/>
+      <c r="AE140" s="14"/>
+    </row>
+    <row r="141" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D141" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+      <c r="R141" s="14"/>
+      <c r="S141" s="14"/>
+      <c r="T141" s="14"/>
+      <c r="U141" s="14"/>
+      <c r="V141" s="14"/>
+      <c r="W141" s="14"/>
+      <c r="X141" s="14"/>
+      <c r="Y141" s="14"/>
+      <c r="Z141" s="14"/>
+      <c r="AA141" s="14"/>
+      <c r="AB141" s="14"/>
+      <c r="AC141" s="14"/>
+      <c r="AD141" s="14"/>
+      <c r="AE141" s="14"/>
+    </row>
+    <row r="143" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D143" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+      <c r="R143" s="14"/>
+      <c r="S143" s="14"/>
+      <c r="T143" s="14"/>
+      <c r="U143" s="14"/>
+      <c r="V143" s="14"/>
+      <c r="W143" s="14"/>
+      <c r="X143" s="14"/>
+      <c r="Y143" s="14"/>
+      <c r="Z143" s="14"/>
+      <c r="AA143" s="14"/>
+      <c r="AB143" s="14"/>
+      <c r="AC143" s="14"/>
+      <c r="AD143" s="14"/>
+      <c r="AE143" s="14"/>
+    </row>
+    <row r="144" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="D144" s="15"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="14"/>
+      <c r="P144" s="14"/>
+      <c r="Q144" s="14"/>
+      <c r="R144" s="14"/>
+      <c r="S144" s="14"/>
+      <c r="T144" s="14"/>
+      <c r="U144" s="14"/>
+      <c r="V144" s="14"/>
+      <c r="W144" s="14"/>
+      <c r="X144" s="14"/>
+      <c r="Y144" s="14"/>
+      <c r="Z144" s="14"/>
+      <c r="AA144" s="14"/>
+      <c r="AB144" s="14"/>
+      <c r="AC144" s="14"/>
+      <c r="AD144" s="14"/>
+      <c r="AE144" s="14"/>
+    </row>
+    <row r="145" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D145" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+      <c r="R145" s="14"/>
+      <c r="S145" s="14"/>
+      <c r="T145" s="14"/>
+      <c r="U145" s="14"/>
+      <c r="V145" s="14"/>
+      <c r="W145" s="14"/>
+      <c r="X145" s="14"/>
+      <c r="Y145" s="14"/>
+      <c r="Z145" s="14"/>
+      <c r="AA145" s="14"/>
+      <c r="AB145" s="14"/>
+      <c r="AC145" s="14"/>
+      <c r="AD145" s="14"/>
+      <c r="AE145" s="14"/>
+    </row>
+    <row r="146" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D146" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+      <c r="R146" s="14"/>
+      <c r="S146" s="14"/>
+      <c r="T146" s="14"/>
+      <c r="U146" s="14"/>
+      <c r="V146" s="14"/>
+      <c r="W146" s="14"/>
+      <c r="X146" s="14"/>
+      <c r="Y146" s="14"/>
+      <c r="Z146" s="14"/>
+      <c r="AA146" s="14"/>
+      <c r="AB146" s="14"/>
+      <c r="AC146" s="14"/>
+      <c r="AD146" s="14"/>
+      <c r="AE146" s="14"/>
+    </row>
+    <row r="147" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D147" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="14"/>
+      <c r="S147" s="14"/>
+      <c r="T147" s="14"/>
+      <c r="U147" s="14"/>
+      <c r="V147" s="14"/>
+      <c r="W147" s="14"/>
+      <c r="X147" s="14"/>
+      <c r="Y147" s="14"/>
+      <c r="Z147" s="14"/>
+      <c r="AA147" s="14"/>
+      <c r="AB147" s="14"/>
+      <c r="AC147" s="14"/>
+      <c r="AD147" s="14"/>
+      <c r="AE147" s="14"/>
+    </row>
+    <row r="148" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D148" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+      <c r="R148" s="14"/>
+      <c r="S148" s="14"/>
+      <c r="T148" s="14"/>
+      <c r="U148" s="14"/>
+      <c r="V148" s="14"/>
+      <c r="W148" s="14"/>
+      <c r="X148" s="14"/>
+      <c r="Y148" s="14"/>
+      <c r="Z148" s="14"/>
+      <c r="AA148" s="14"/>
+      <c r="AB148" s="14"/>
+      <c r="AC148" s="14"/>
+      <c r="AD148" s="14"/>
+      <c r="AE148" s="14"/>
+    </row>
+    <row r="149" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D149" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="14"/>
+      <c r="S149" s="14"/>
+      <c r="T149" s="14"/>
+      <c r="U149" s="14"/>
+      <c r="V149" s="14"/>
+      <c r="W149" s="14"/>
+      <c r="X149" s="14"/>
+      <c r="Y149" s="14"/>
+      <c r="Z149" s="14"/>
+      <c r="AA149" s="14"/>
+      <c r="AB149" s="14"/>
+      <c r="AC149" s="14"/>
+      <c r="AD149" s="14"/>
+      <c r="AE149" s="14"/>
+    </row>
+    <row r="150" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D150" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="14"/>
+      <c r="T150" s="14"/>
+      <c r="U150" s="14"/>
+      <c r="V150" s="14"/>
+      <c r="W150" s="14"/>
+      <c r="X150" s="14"/>
+      <c r="Y150" s="14"/>
+      <c r="Z150" s="14"/>
+      <c r="AA150" s="14"/>
+      <c r="AB150" s="14"/>
+      <c r="AC150" s="14"/>
+      <c r="AD150" s="14"/>
+      <c r="AE150" s="14"/>
+    </row>
+    <row r="151" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D151" s="15"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="14"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="14"/>
+      <c r="R151" s="14"/>
+      <c r="S151" s="14"/>
+      <c r="T151" s="14"/>
+      <c r="U151" s="14"/>
+      <c r="V151" s="14"/>
+      <c r="W151" s="14"/>
+      <c r="X151" s="14"/>
+      <c r="Y151" s="14"/>
+      <c r="Z151" s="14"/>
+      <c r="AA151" s="14"/>
+      <c r="AB151" s="14"/>
+      <c r="AC151" s="14"/>
+      <c r="AD151" s="14"/>
+      <c r="AE151" s="14"/>
+    </row>
+    <row r="152" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D152" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+      <c r="R152" s="14"/>
+      <c r="S152" s="14"/>
+      <c r="T152" s="14"/>
+      <c r="U152" s="14"/>
+      <c r="V152" s="14"/>
+      <c r="W152" s="14"/>
+      <c r="X152" s="14"/>
+      <c r="Y152" s="14"/>
+      <c r="Z152" s="14"/>
+      <c r="AA152" s="14"/>
+      <c r="AB152" s="14"/>
+      <c r="AC152" s="14"/>
+      <c r="AD152" s="14"/>
+      <c r="AE152" s="14"/>
+    </row>
+    <row r="153" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D153" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+      <c r="R153" s="14"/>
+      <c r="S153" s="14"/>
+      <c r="T153" s="14"/>
+      <c r="U153" s="14"/>
+      <c r="V153" s="14"/>
+      <c r="W153" s="14"/>
+      <c r="X153" s="14"/>
+      <c r="Y153" s="14"/>
+      <c r="Z153" s="14"/>
+      <c r="AA153" s="14"/>
+      <c r="AB153" s="14"/>
+      <c r="AC153" s="14"/>
+      <c r="AD153" s="14"/>
+      <c r="AE153" s="14"/>
+    </row>
+    <row r="154" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D154" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="14"/>
+      <c r="Q154" s="14"/>
+      <c r="R154" s="14"/>
+      <c r="S154" s="14"/>
+      <c r="T154" s="14"/>
+      <c r="U154" s="14"/>
+      <c r="V154" s="14"/>
+      <c r="W154" s="14"/>
+      <c r="X154" s="14"/>
+      <c r="Y154" s="14"/>
+      <c r="Z154" s="14"/>
+      <c r="AA154" s="14"/>
+      <c r="AB154" s="14"/>
+      <c r="AC154" s="14"/>
+      <c r="AD154" s="14"/>
+      <c r="AE154" s="14"/>
+    </row>
+    <row r="155" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D155" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="14"/>
+      <c r="Q155" s="14"/>
+      <c r="R155" s="14"/>
+      <c r="S155" s="14"/>
+      <c r="T155" s="14"/>
+      <c r="U155" s="14"/>
+      <c r="V155" s="14"/>
+      <c r="W155" s="14"/>
+      <c r="X155" s="14"/>
+      <c r="Y155" s="14"/>
+      <c r="Z155" s="14"/>
+      <c r="AA155" s="14"/>
+      <c r="AB155" s="14"/>
+      <c r="AC155" s="14"/>
+      <c r="AD155" s="14"/>
+      <c r="AE155" s="14"/>
+    </row>
+    <row r="156" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D156" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+      <c r="R156" s="14"/>
+      <c r="S156" s="14"/>
+      <c r="T156" s="14"/>
+      <c r="U156" s="14"/>
+      <c r="V156" s="14"/>
+      <c r="W156" s="14"/>
+      <c r="X156" s="14"/>
+      <c r="Y156" s="14"/>
+      <c r="Z156" s="14"/>
+      <c r="AA156" s="14"/>
+      <c r="AB156" s="14"/>
+      <c r="AC156" s="14"/>
+      <c r="AD156" s="14"/>
+      <c r="AE156" s="14"/>
+    </row>
+    <row r="158" spans="2:31" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D159" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="17"/>
+      <c r="Q159" s="17"/>
+      <c r="R159" s="17"/>
+      <c r="S159" s="17"/>
+      <c r="T159" s="17"/>
+      <c r="U159" s="17"/>
+      <c r="V159" s="17"/>
+      <c r="W159" s="17"/>
+      <c r="X159" s="17"/>
+      <c r="Y159" s="17"/>
+      <c r="Z159" s="17"/>
+      <c r="AA159" s="17"/>
+      <c r="AB159" s="17"/>
+      <c r="AC159" s="17"/>
+      <c r="AD159" s="17"/>
+      <c r="AE159" s="17"/>
+    </row>
+    <row r="160" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D160" s="15"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
+      <c r="O160" s="17"/>
+      <c r="P160" s="17"/>
+      <c r="Q160" s="17"/>
+      <c r="R160" s="17"/>
+      <c r="S160" s="17"/>
+      <c r="T160" s="17"/>
+      <c r="U160" s="17"/>
+      <c r="V160" s="17"/>
+      <c r="W160" s="17"/>
+      <c r="X160" s="17"/>
+      <c r="Y160" s="17"/>
+      <c r="Z160" s="17"/>
+      <c r="AA160" s="17"/>
+      <c r="AB160" s="17"/>
+      <c r="AC160" s="17"/>
+      <c r="AD160" s="17"/>
+      <c r="AE160" s="17"/>
+    </row>
+    <row r="161" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D161" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="17"/>
+      <c r="P161" s="17"/>
+      <c r="Q161" s="17"/>
+      <c r="R161" s="17"/>
+      <c r="S161" s="17"/>
+      <c r="T161" s="17"/>
+      <c r="U161" s="17"/>
+      <c r="V161" s="17"/>
+      <c r="W161" s="17"/>
+      <c r="X161" s="17"/>
+      <c r="Y161" s="17"/>
+      <c r="Z161" s="17"/>
+      <c r="AA161" s="17"/>
+      <c r="AB161" s="17"/>
+      <c r="AC161" s="17"/>
+      <c r="AD161" s="17"/>
+      <c r="AE161" s="17"/>
+    </row>
+    <row r="162" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D162" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="17"/>
+      <c r="P162" s="17"/>
+      <c r="Q162" s="17"/>
+      <c r="R162" s="17"/>
+      <c r="S162" s="17"/>
+      <c r="T162" s="17"/>
+      <c r="U162" s="17"/>
+      <c r="V162" s="17"/>
+      <c r="W162" s="17"/>
+      <c r="X162" s="17"/>
+      <c r="Y162" s="17"/>
+      <c r="Z162" s="17"/>
+      <c r="AA162" s="17"/>
+      <c r="AB162" s="17"/>
+      <c r="AC162" s="17"/>
+      <c r="AD162" s="17"/>
+      <c r="AE162" s="17"/>
+    </row>
+    <row r="163" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D163" s="15"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
+      <c r="Q163" s="17"/>
+      <c r="R163" s="17"/>
+      <c r="S163" s="17"/>
+      <c r="T163" s="17"/>
+      <c r="U163" s="17"/>
+      <c r="V163" s="17"/>
+      <c r="W163" s="17"/>
+      <c r="X163" s="17"/>
+      <c r="Y163" s="17"/>
+      <c r="Z163" s="17"/>
+      <c r="AA163" s="17"/>
+      <c r="AB163" s="17"/>
+      <c r="AC163" s="17"/>
+      <c r="AD163" s="17"/>
+      <c r="AE163" s="17"/>
+    </row>
+    <row r="164" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D164" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17"/>
+      <c r="R164" s="17"/>
+      <c r="S164" s="17"/>
+      <c r="T164" s="17"/>
+      <c r="U164" s="17"/>
+      <c r="V164" s="17"/>
+      <c r="W164" s="17"/>
+      <c r="X164" s="17"/>
+      <c r="Y164" s="17"/>
+      <c r="Z164" s="17"/>
+      <c r="AA164" s="17"/>
+      <c r="AB164" s="17"/>
+      <c r="AC164" s="17"/>
+      <c r="AD164" s="17"/>
+      <c r="AE164" s="17"/>
+    </row>
+    <row r="165" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D165" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
+      <c r="P165" s="17"/>
+      <c r="Q165" s="17"/>
+      <c r="R165" s="17"/>
+      <c r="S165" s="17"/>
+      <c r="T165" s="17"/>
+      <c r="U165" s="17"/>
+      <c r="V165" s="17"/>
+      <c r="W165" s="17"/>
+      <c r="X165" s="17"/>
+      <c r="Y165" s="17"/>
+      <c r="Z165" s="17"/>
+      <c r="AA165" s="17"/>
+      <c r="AB165" s="17"/>
+      <c r="AC165" s="17"/>
+      <c r="AD165" s="17"/>
+      <c r="AE165" s="17"/>
+    </row>
+    <row r="166" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D166" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
+      <c r="Q166" s="17"/>
+      <c r="R166" s="17"/>
+      <c r="S166" s="17"/>
+      <c r="T166" s="17"/>
+      <c r="U166" s="17"/>
+      <c r="V166" s="17"/>
+      <c r="W166" s="17"/>
+      <c r="X166" s="17"/>
+      <c r="Y166" s="17"/>
+      <c r="Z166" s="17"/>
+      <c r="AA166" s="17"/>
+      <c r="AB166" s="17"/>
+      <c r="AC166" s="17"/>
+      <c r="AD166" s="17"/>
+      <c r="AE166" s="17"/>
+    </row>
+    <row r="167" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D167" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
+      <c r="P167" s="17"/>
+      <c r="Q167" s="17"/>
+      <c r="R167" s="17"/>
+      <c r="S167" s="17"/>
+      <c r="T167" s="17"/>
+      <c r="U167" s="17"/>
+      <c r="V167" s="17"/>
+      <c r="W167" s="17"/>
+      <c r="X167" s="17"/>
+      <c r="Y167" s="17"/>
+      <c r="Z167" s="17"/>
+      <c r="AA167" s="17"/>
+      <c r="AB167" s="17"/>
+      <c r="AC167" s="17"/>
+      <c r="AD167" s="17"/>
+      <c r="AE167" s="17"/>
+    </row>
+    <row r="168" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D168" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17"/>
+      <c r="N168" s="17"/>
+      <c r="O168" s="17"/>
+      <c r="P168" s="17"/>
+      <c r="Q168" s="17"/>
+      <c r="R168" s="17"/>
+      <c r="S168" s="17"/>
+      <c r="T168" s="17"/>
+      <c r="U168" s="17"/>
+      <c r="V168" s="17"/>
+      <c r="W168" s="17"/>
+      <c r="X168" s="17"/>
+      <c r="Y168" s="17"/>
+      <c r="Z168" s="17"/>
+      <c r="AA168" s="17"/>
+      <c r="AB168" s="17"/>
+      <c r="AC168" s="17"/>
+      <c r="AD168" s="17"/>
+      <c r="AE168" s="17"/>
+    </row>
+    <row r="169" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D169" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="17"/>
+      <c r="N169" s="17"/>
+      <c r="O169" s="17"/>
+      <c r="P169" s="17"/>
+      <c r="Q169" s="17"/>
+      <c r="R169" s="17"/>
+      <c r="S169" s="17"/>
+      <c r="T169" s="17"/>
+      <c r="U169" s="17"/>
+      <c r="V169" s="17"/>
+      <c r="W169" s="17"/>
+      <c r="X169" s="17"/>
+      <c r="Y169" s="17"/>
+      <c r="Z169" s="17"/>
+      <c r="AA169" s="17"/>
+      <c r="AB169" s="17"/>
+      <c r="AC169" s="17"/>
+      <c r="AD169" s="17"/>
+      <c r="AE169" s="17"/>
+    </row>
+    <row r="170" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D170" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+      <c r="M170" s="17"/>
+      <c r="N170" s="17"/>
+      <c r="O170" s="17"/>
+      <c r="P170" s="17"/>
+      <c r="Q170" s="17"/>
+      <c r="R170" s="17"/>
+      <c r="S170" s="17"/>
+      <c r="T170" s="17"/>
+      <c r="U170" s="17"/>
+      <c r="V170" s="17"/>
+      <c r="W170" s="17"/>
+      <c r="X170" s="17"/>
+      <c r="Y170" s="17"/>
+      <c r="Z170" s="17"/>
+      <c r="AA170" s="17"/>
+      <c r="AB170" s="17"/>
+      <c r="AC170" s="17"/>
+      <c r="AD170" s="17"/>
+      <c r="AE170" s="17"/>
+    </row>
+    <row r="171" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D171" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17"/>
+      <c r="N171" s="17"/>
+      <c r="O171" s="17"/>
+      <c r="P171" s="17"/>
+      <c r="Q171" s="17"/>
+      <c r="R171" s="17"/>
+      <c r="S171" s="17"/>
+      <c r="T171" s="17"/>
+      <c r="U171" s="17"/>
+      <c r="V171" s="17"/>
+      <c r="W171" s="17"/>
+      <c r="X171" s="17"/>
+      <c r="Y171" s="17"/>
+      <c r="Z171" s="17"/>
+      <c r="AA171" s="17"/>
+      <c r="AB171" s="17"/>
+      <c r="AC171" s="17"/>
+      <c r="AD171" s="17"/>
+      <c r="AE171" s="17"/>
+    </row>
+    <row r="172" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D172" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="17"/>
+      <c r="O172" s="17"/>
+      <c r="P172" s="17"/>
+      <c r="Q172" s="17"/>
+      <c r="R172" s="17"/>
+      <c r="S172" s="17"/>
+      <c r="T172" s="17"/>
+      <c r="U172" s="17"/>
+      <c r="V172" s="17"/>
+      <c r="W172" s="17"/>
+      <c r="X172" s="17"/>
+      <c r="Y172" s="17"/>
+      <c r="Z172" s="17"/>
+      <c r="AA172" s="17"/>
+      <c r="AB172" s="17"/>
+      <c r="AC172" s="17"/>
+      <c r="AD172" s="17"/>
+      <c r="AE172" s="17"/>
+    </row>
+    <row r="173" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D173" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+      <c r="S173" s="17"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="17"/>
+      <c r="V173" s="17"/>
+      <c r="W173" s="17"/>
+      <c r="X173" s="17"/>
+      <c r="Y173" s="17"/>
+      <c r="Z173" s="17"/>
+      <c r="AA173" s="17"/>
+      <c r="AB173" s="17"/>
+      <c r="AC173" s="17"/>
+      <c r="AD173" s="17"/>
+      <c r="AE173" s="17"/>
+    </row>
+    <row r="174" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D174" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17"/>
+      <c r="N174" s="17"/>
+      <c r="O174" s="17"/>
+      <c r="P174" s="17"/>
+      <c r="Q174" s="17"/>
+      <c r="R174" s="17"/>
+      <c r="S174" s="17"/>
+      <c r="T174" s="17"/>
+      <c r="U174" s="17"/>
+      <c r="V174" s="17"/>
+      <c r="W174" s="17"/>
+      <c r="X174" s="17"/>
+      <c r="Y174" s="17"/>
+      <c r="Z174" s="17"/>
+      <c r="AA174" s="17"/>
+      <c r="AB174" s="17"/>
+      <c r="AC174" s="17"/>
+      <c r="AD174" s="17"/>
+      <c r="AE174" s="17"/>
+    </row>
+    <row r="175" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D175" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+      <c r="M175" s="17"/>
+      <c r="N175" s="17"/>
+      <c r="O175" s="17"/>
+      <c r="P175" s="17"/>
+      <c r="Q175" s="17"/>
+      <c r="R175" s="17"/>
+      <c r="S175" s="17"/>
+      <c r="T175" s="17"/>
+      <c r="U175" s="17"/>
+      <c r="V175" s="17"/>
+      <c r="W175" s="17"/>
+      <c r="X175" s="17"/>
+      <c r="Y175" s="17"/>
+      <c r="Z175" s="17"/>
+      <c r="AA175" s="17"/>
+      <c r="AB175" s="17"/>
+      <c r="AC175" s="17"/>
+      <c r="AD175" s="17"/>
+      <c r="AE175" s="17"/>
+    </row>
+    <row r="176" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D176" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
+      <c r="M176" s="17"/>
+      <c r="N176" s="17"/>
+      <c r="O176" s="17"/>
+      <c r="P176" s="17"/>
+      <c r="Q176" s="17"/>
+      <c r="R176" s="17"/>
+      <c r="S176" s="17"/>
+      <c r="T176" s="17"/>
+      <c r="U176" s="17"/>
+      <c r="V176" s="17"/>
+      <c r="W176" s="17"/>
+      <c r="X176" s="17"/>
+      <c r="Y176" s="17"/>
+      <c r="Z176" s="17"/>
+      <c r="AA176" s="17"/>
+      <c r="AB176" s="17"/>
+      <c r="AC176" s="17"/>
+      <c r="AD176" s="17"/>
+      <c r="AE176" s="17"/>
+    </row>
+    <row r="177" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D177" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
+      <c r="P177" s="17"/>
+      <c r="Q177" s="17"/>
+      <c r="R177" s="17"/>
+      <c r="S177" s="17"/>
+      <c r="T177" s="17"/>
+      <c r="U177" s="17"/>
+      <c r="V177" s="17"/>
+      <c r="W177" s="17"/>
+      <c r="X177" s="17"/>
+      <c r="Y177" s="17"/>
+      <c r="Z177" s="17"/>
+      <c r="AA177" s="17"/>
+      <c r="AB177" s="17"/>
+      <c r="AC177" s="17"/>
+      <c r="AD177" s="17"/>
+      <c r="AE177" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Spring/Spring.xlsx
+++ b/Spring/Spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="4"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Spring container" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Bean Scope" sheetId="3" r:id="rId3"/>
     <sheet name="Spring Bean Life Cycle Tutorial" sheetId="4" r:id="rId4"/>
     <sheet name="Spring BeanPostProcessor" sheetId="5" r:id="rId5"/>
+    <sheet name="Autowiring" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="190">
   <si>
     <t>1. Inversion of control as a design guideline serves the following purposes:</t>
   </si>
@@ -3003,13 +3004,3284 @@
       </rPr>
       <t>@PreDestroy</t>
     </r>
+  </si>
+  <si>
+    <t>Spring bean post processor using BeanPostProcessor class</t>
+  </si>
+  <si>
+    <r>
+      <t>- implement it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>postProcessBeforeInitialization()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>postProcessAfterInitialization()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> methods</t>
+    </r>
+  </si>
+  <si>
+    <t>- To create a bean post processor class in spring, you will need to implement the BeanPostProcessor interface </t>
+  </si>
+  <si>
+    <t>Bean post processor example</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">EmployeeDAOImpl </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>EmployeeDAO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>EmployeeDTO createNewEmployee()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">EmployeeDTO e = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>EmployeeDTO();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>e.setId(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>e.setFirstName(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Lokesh"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>e.setLastName(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Gupta"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>e;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>initBean() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>System.out.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Init Bean for : EmployeeDAOImpl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>destroyBean() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"customBeanPostProcessor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.demo.processors.CustomBeanPostProcessor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"dao"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.demo.dao.EmployeeDAOImpl"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>init-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"initBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>destroy-method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"destroyBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ApplicationContext context = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ClassPathXmlApplicationContext(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"applicationContext.xml"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Called postProcessBeforeInitialization() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>: dao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Init Bean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>: EmployeeDAOImpl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Called postProcessAfterInitialization() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>: dao</t>
+    </r>
+  </si>
+  <si>
+    <t>Using autowiring with @Autowired annotations</t>
+  </si>
+  <si>
+    <t>- To use @Autowired annotation in bean classes, you must first enable the annotation in spring application using below configuration.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>context:annotation-config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- Same can be acheived using ‘AutowiredAnnotationBeanPostProcessor’ bean definition in configuration file.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"org.springframework.beans.factory.annotation.AutowiredAnnotationBeanPostProcessor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>1) @Autowired on properties</t>
+  </si>
+  <si>
+    <t>- When @Autowired is used on properties, it is equivalent to autowiring by ‘byType‘ in configuration file.</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>EmployeeBean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@Autowired</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>DepartmentBean departmentBean;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>DepartmentBean getDepartmentBean() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>departmentBean;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>setDepartmentBean(DepartmentBean departmentBean) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>.departmentBean = departmentBean;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>//More code</t>
+    </r>
+  </si>
+  <si>
+    <t>2) @Autowired on property setters</t>
+  </si>
+  <si>
+    <t>- When @Autowired is used on setters, it is also equivalent to autowiring by ‘byType’ in configuration file.</t>
+  </si>
+  <si>
+    <t>3) @Autowired on constructors</t>
+  </si>
+  <si>
+    <t>When @Autowired is used on bean’s constructor, it is also equivalent to autowiring by ‘constructor’ in configuration file.</t>
+  </si>
+  <si>
+    <r>
+      <t>package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>com.howtodoinjava.autowire.constructor;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>EmployeeBean(DepartmentBean departmentBean)</t>
+    </r>
+  </si>
+  <si>
+    <t>Using @Qualifier in case of conflict</t>
+  </si>
+  <si>
+    <r>
+      <t>As we learned that if we are using autowiring in ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>byType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>‘ mode and dependencies are looked for property class types. If no such type is found, an error is thrown. But, what if there are two or more beans for same class type.</t>
+    </r>
+  </si>
+  <si>
+    <t>In this case spring will not be able to choose correct bean to inject into property, and you will need to help the container using qualifiers.</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"finance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"1.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"UTF-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>?&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>context:annotation-config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"employee"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.autowire.constructor.EmployeeBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>autowire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"constructor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"fullName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Lokesh Gupta"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;!--First bean of type DepartmentBean--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"humanResource"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.autowire.constructor.DepartmentBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Human Resource"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;!--Second bean of type DepartmentBean--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"finance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.autowire.constructor.DepartmentBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"Finance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Making autowiring error safe using required=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, solve this issue, you will need to make autowiring optional so that if no dependency is found, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if you have used utmost care in autowiring bean dependencies, still you may find strange lookup failures. </t>
+  </si>
+  <si>
+    <t>application should not throw any exception and autowiring should simpy be ignored.</t>
+  </si>
+  <si>
+    <r>
+      <t>To resolve a specific bean using qualifier, we need to use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> annotation along with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@Autowired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> annotation and pass the bean name in annotation parameter. Take a look below for example:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1)If you want to make specific bean autowiring non-mandatory for a specific bean property, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>required=”false”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>attribute in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>@Autowired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> annoration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@Autowired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(required=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"finance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>DepartmentBean departmentBean;</t>
+    </r>
+  </si>
+  <si>
+    <t>2) If you want to apply optional autowiring at global level i.e. for all properties in all beans; use below configuration setting.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"org.springframework.beans.factory.annotation.AutowiredAnnotationBeanPostProcessor"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"requiredParameterValue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Excluding a bean from being available for autowiring</t>
+  </si>
+  <si>
+    <t>By default, autowiring scan and matches all bean definitions in scope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you want to exclude some bean definitions so that they can not be injected through autowiring mode, you can do this using ‘autowire-candidate’ set to false.</t>
+  </si>
+  <si>
+    <r>
+      <t>1) Using ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>autowire-candidate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>‘ as false totally exclude a bean from being an autowire candidate. It totally exclude that specific bean definition from being available to the autowiring infrastructure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;!--Will be available for autowiring--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;!--Will not participate in autowiring--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"finance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"com.howtodoinjava.autowire.constructor.DepartmentBean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>autowire-candidate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Another option is to limit autowire candidates based on pattern-matching against bean names. </t>
+  </si>
+  <si>
+    <r>
+      <t>The top-level &lt;beans/&gt; element accepts one or more patterns within its ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>default-autowire-candidates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>‘ attribute</t>
+    </r>
+  </si>
+  <si>
+    <t> For example, to limit autowire candidate status to any bean whose name ends with ‘Impl’, provide a value of ‘*Impl’</t>
+  </si>
+  <si>
+    <t>To provide multiple patterns, define them in a comma-separated list.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>default-autowire-candidates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>"*Impl,*Dao"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Note that an explicit value of ‘true’ or ‘false’ for a bean definition’s ‘autowire-candidate’ attribute always takes precedence, and for such beans, the pattern matching rules will not apply.</t>
+  </si>
+  <si>
+    <t>That’s all about autowiring feature available in spring framework. If you have any doubt, please drop a comment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3084,13 +6356,6 @@
       <charset val="163"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
       <sz val="16.5"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
@@ -3111,6 +6376,65 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF009900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3145,10 +6469,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3173,7 +6498,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3186,9 +6511,42 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4265,6 +7623,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>153091</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="175260"/>
+          <a:ext cx="7971211" cy="3574090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8447,14 +11848,5009 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="C4" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+    </row>
+    <row r="27" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+    </row>
+    <row r="28" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+    </row>
+    <row r="29" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C29" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
+    </row>
+    <row r="31" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C31" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+    </row>
+    <row r="32" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C33" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+    </row>
+    <row r="34" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C35" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" tooltip="BeanPostProcessor" display="http://docs.spring.io/spring-framework/docs/4.1.4.RELEASE/javadoc-api/org/springframework/beans/factory/config/BeanPostProcessor.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B23:AQ184"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="T173" sqref="T173"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="23" spans="2:36" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C24" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D25" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D26" s="25"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C27" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D28" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+    </row>
+    <row r="30" spans="2:36" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C30" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D31" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E32" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E33" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E34" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E35" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E36" s="28"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E37" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E38" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E40" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E41" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E42" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E43" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E44" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+    </row>
+    <row r="46" spans="3:27" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C46" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D47" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E48" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E49" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E50" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E51" s="28"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E52" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E53" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E54" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E55" s="28"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E56" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E57" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E58" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E59" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E60" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E61" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+    </row>
+    <row r="63" spans="3:27" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C63" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="D64" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E65" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+    </row>
+    <row r="66" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E66" s="15"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+    </row>
+    <row r="67" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E67" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+    </row>
+    <row r="68" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E68" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+    </row>
+    <row r="69" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E69" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+    </row>
+    <row r="70" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E70" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+    </row>
+    <row r="71" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E71" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+    </row>
+    <row r="72" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E72" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+    </row>
+    <row r="73" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E73" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+    </row>
+    <row r="74" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E74" s="15"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+    </row>
+    <row r="75" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E75" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+    </row>
+    <row r="76" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E76" s="15"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17"/>
+    </row>
+    <row r="77" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E77" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="17"/>
+    </row>
+    <row r="78" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E78" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="17"/>
+    </row>
+    <row r="79" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E79" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+    </row>
+    <row r="80" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E80" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E81" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E82" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="17"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="17"/>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E83" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="17"/>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E84" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+    </row>
+    <row r="86" spans="2:27" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C87" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C88" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C89" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D90" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D91" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
+      <c r="Z91" s="17"/>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D92" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D93" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
+      <c r="Y93" s="17"/>
+      <c r="Z93" s="17"/>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D94" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="17"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D95" s="15"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D96" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="17"/>
+    </row>
+    <row r="97" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D97" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+    </row>
+    <row r="98" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D98" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+    </row>
+    <row r="99" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D99" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="17"/>
+      <c r="X99" s="17"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+    </row>
+    <row r="100" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D100" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="17"/>
+      <c r="X100" s="17"/>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
+    </row>
+    <row r="101" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D101" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+    </row>
+    <row r="102" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D102" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
+    </row>
+    <row r="103" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D103" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="17"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
+    </row>
+    <row r="105" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D105" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="17"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="17"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="17"/>
+      <c r="AI105" s="17"/>
+      <c r="AJ105" s="17"/>
+      <c r="AK105" s="17"/>
+      <c r="AL105" s="17"/>
+      <c r="AM105" s="17"/>
+    </row>
+    <row r="106" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D106" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="17"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="17"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="17"/>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="17"/>
+      <c r="AI106" s="17"/>
+      <c r="AJ106" s="17"/>
+      <c r="AK106" s="17"/>
+      <c r="AL106" s="17"/>
+      <c r="AM106" s="17"/>
+    </row>
+    <row r="107" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D107" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="17"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="17"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="17"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="17"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
+      <c r="AJ107" s="17"/>
+      <c r="AK107" s="17"/>
+      <c r="AL107" s="17"/>
+      <c r="AM107" s="17"/>
+    </row>
+    <row r="108" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D108" s="15"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
+      <c r="AL108" s="17"/>
+      <c r="AM108" s="17"/>
+    </row>
+    <row r="109" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D109" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="17"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="17"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="17"/>
+    </row>
+    <row r="110" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D110" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="17"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="17"/>
+    </row>
+    <row r="111" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D111" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="17"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="17"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="17"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="17"/>
+    </row>
+    <row r="112" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D112" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="17"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="17"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="17"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
+      <c r="AJ112" s="17"/>
+      <c r="AK112" s="17"/>
+      <c r="AL112" s="17"/>
+      <c r="AM112" s="17"/>
+    </row>
+    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D113" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="17"/>
+      <c r="V113" s="17"/>
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="17"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="17"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="17"/>
+      <c r="AI113" s="17"/>
+      <c r="AJ113" s="17"/>
+      <c r="AK113" s="17"/>
+      <c r="AL113" s="17"/>
+      <c r="AM113" s="17"/>
+    </row>
+    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D114" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="17"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="17"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="17"/>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="17"/>
+      <c r="AI114" s="17"/>
+      <c r="AJ114" s="17"/>
+      <c r="AK114" s="17"/>
+      <c r="AL114" s="17"/>
+      <c r="AM114" s="17"/>
+    </row>
+    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D115" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="17"/>
+      <c r="V115" s="17"/>
+      <c r="W115" s="17"/>
+      <c r="X115" s="17"/>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="17"/>
+      <c r="AB115" s="17"/>
+      <c r="AC115" s="17"/>
+      <c r="AD115" s="17"/>
+      <c r="AE115" s="17"/>
+      <c r="AF115" s="17"/>
+      <c r="AG115" s="17"/>
+      <c r="AH115" s="17"/>
+      <c r="AI115" s="17"/>
+      <c r="AJ115" s="17"/>
+      <c r="AK115" s="17"/>
+      <c r="AL115" s="17"/>
+      <c r="AM115" s="17"/>
+    </row>
+    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D116" s="15"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
+      <c r="AJ116" s="17"/>
+      <c r="AK116" s="17"/>
+      <c r="AL116" s="17"/>
+      <c r="AM116" s="17"/>
+    </row>
+    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D117" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
+      <c r="V117" s="17"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="17"/>
+      <c r="AB117" s="17"/>
+      <c r="AC117" s="17"/>
+      <c r="AD117" s="17"/>
+      <c r="AE117" s="17"/>
+      <c r="AF117" s="17"/>
+      <c r="AG117" s="17"/>
+      <c r="AH117" s="17"/>
+      <c r="AI117" s="17"/>
+      <c r="AJ117" s="17"/>
+      <c r="AK117" s="17"/>
+      <c r="AL117" s="17"/>
+      <c r="AM117" s="17"/>
+    </row>
+    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D118" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="17"/>
+      <c r="V118" s="17"/>
+      <c r="W118" s="17"/>
+      <c r="X118" s="17"/>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
+      <c r="AA118" s="17"/>
+      <c r="AB118" s="17"/>
+      <c r="AC118" s="17"/>
+      <c r="AD118" s="17"/>
+      <c r="AE118" s="17"/>
+      <c r="AF118" s="17"/>
+      <c r="AG118" s="17"/>
+      <c r="AH118" s="17"/>
+      <c r="AI118" s="17"/>
+      <c r="AJ118" s="17"/>
+      <c r="AK118" s="17"/>
+      <c r="AL118" s="17"/>
+      <c r="AM118" s="17"/>
+    </row>
+    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D119" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="17"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="17"/>
+      <c r="U119" s="17"/>
+      <c r="V119" s="17"/>
+      <c r="W119" s="17"/>
+      <c r="X119" s="17"/>
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="17"/>
+      <c r="AA119" s="17"/>
+      <c r="AB119" s="17"/>
+      <c r="AC119" s="17"/>
+      <c r="AD119" s="17"/>
+      <c r="AE119" s="17"/>
+      <c r="AF119" s="17"/>
+      <c r="AG119" s="17"/>
+      <c r="AH119" s="17"/>
+      <c r="AI119" s="17"/>
+      <c r="AJ119" s="17"/>
+      <c r="AK119" s="17"/>
+      <c r="AL119" s="17"/>
+      <c r="AM119" s="17"/>
+    </row>
+    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D120" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="17"/>
+      <c r="AB120" s="17"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="17"/>
+      <c r="AE120" s="17"/>
+      <c r="AF120" s="17"/>
+      <c r="AG120" s="17"/>
+      <c r="AH120" s="17"/>
+      <c r="AI120" s="17"/>
+      <c r="AJ120" s="17"/>
+      <c r="AK120" s="17"/>
+      <c r="AL120" s="17"/>
+      <c r="AM120" s="17"/>
+    </row>
+    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D121" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="17"/>
+      <c r="V121" s="17"/>
+      <c r="W121" s="17"/>
+      <c r="X121" s="17"/>
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="17"/>
+      <c r="AB121" s="17"/>
+      <c r="AC121" s="17"/>
+      <c r="AD121" s="17"/>
+      <c r="AE121" s="17"/>
+      <c r="AF121" s="17"/>
+      <c r="AG121" s="17"/>
+      <c r="AH121" s="17"/>
+      <c r="AI121" s="17"/>
+      <c r="AJ121" s="17"/>
+      <c r="AK121" s="17"/>
+      <c r="AL121" s="17"/>
+      <c r="AM121" s="17"/>
+    </row>
+    <row r="123" spans="2:39" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="2:39" ht="15" x14ac:dyDescent="0.35">
+      <c r="C124" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C125" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C126" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="2:39" ht="15" x14ac:dyDescent="0.35">
+      <c r="C128" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D129" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
+    </row>
+    <row r="130" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D130" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
+    </row>
+    <row r="131" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D131" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
+    </row>
+    <row r="133" spans="2:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C133" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D134" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="17"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="17"/>
+      <c r="V134" s="17"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="17"/>
+      <c r="AA134" s="17"/>
+      <c r="AB134" s="17"/>
+      <c r="AC134" s="17"/>
+      <c r="AD134" s="17"/>
+      <c r="AE134" s="17"/>
+      <c r="AF134" s="17"/>
+      <c r="AG134" s="17"/>
+      <c r="AH134" s="17"/>
+      <c r="AI134" s="17"/>
+      <c r="AJ134" s="17"/>
+    </row>
+    <row r="135" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D135" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
+      <c r="R135" s="17"/>
+      <c r="S135" s="17"/>
+      <c r="T135" s="17"/>
+      <c r="U135" s="17"/>
+      <c r="V135" s="17"/>
+      <c r="W135" s="17"/>
+      <c r="X135" s="17"/>
+      <c r="Y135" s="17"/>
+      <c r="Z135" s="17"/>
+      <c r="AA135" s="17"/>
+      <c r="AB135" s="17"/>
+      <c r="AC135" s="17"/>
+      <c r="AD135" s="17"/>
+      <c r="AE135" s="17"/>
+      <c r="AF135" s="17"/>
+      <c r="AG135" s="17"/>
+      <c r="AH135" s="17"/>
+      <c r="AI135" s="17"/>
+      <c r="AJ135" s="17"/>
+    </row>
+    <row r="136" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D136" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
+      <c r="R136" s="17"/>
+      <c r="S136" s="17"/>
+      <c r="T136" s="17"/>
+      <c r="U136" s="17"/>
+      <c r="V136" s="17"/>
+      <c r="W136" s="17"/>
+      <c r="X136" s="17"/>
+      <c r="Y136" s="17"/>
+      <c r="Z136" s="17"/>
+      <c r="AA136" s="17"/>
+      <c r="AB136" s="17"/>
+      <c r="AC136" s="17"/>
+      <c r="AD136" s="17"/>
+      <c r="AE136" s="17"/>
+      <c r="AF136" s="17"/>
+      <c r="AG136" s="17"/>
+      <c r="AH136" s="17"/>
+      <c r="AI136" s="17"/>
+      <c r="AJ136" s="17"/>
+    </row>
+    <row r="138" spans="2:43" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="2:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C139" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C140" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="2:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C142" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D143" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
+      <c r="R143" s="17"/>
+      <c r="S143" s="17"/>
+      <c r="T143" s="17"/>
+      <c r="U143" s="17"/>
+      <c r="V143" s="17"/>
+      <c r="W143" s="17"/>
+      <c r="X143" s="17"/>
+      <c r="Y143" s="17"/>
+      <c r="Z143" s="17"/>
+      <c r="AA143" s="17"/>
+      <c r="AB143" s="17"/>
+      <c r="AC143" s="17"/>
+      <c r="AD143" s="17"/>
+      <c r="AE143" s="17"/>
+      <c r="AF143" s="17"/>
+      <c r="AG143" s="17"/>
+      <c r="AH143" s="17"/>
+      <c r="AI143" s="17"/>
+      <c r="AJ143" s="17"/>
+      <c r="AK143" s="17"/>
+      <c r="AL143" s="17"/>
+      <c r="AM143" s="17"/>
+      <c r="AN143" s="17"/>
+      <c r="AO143" s="17"/>
+      <c r="AP143" s="17"/>
+      <c r="AQ143" s="17"/>
+    </row>
+    <row r="144" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D144" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
+      <c r="R144" s="17"/>
+      <c r="S144" s="17"/>
+      <c r="T144" s="17"/>
+      <c r="U144" s="17"/>
+      <c r="V144" s="17"/>
+      <c r="W144" s="17"/>
+      <c r="X144" s="17"/>
+      <c r="Y144" s="17"/>
+      <c r="Z144" s="17"/>
+      <c r="AA144" s="17"/>
+      <c r="AB144" s="17"/>
+      <c r="AC144" s="17"/>
+      <c r="AD144" s="17"/>
+      <c r="AE144" s="17"/>
+      <c r="AF144" s="17"/>
+      <c r="AG144" s="17"/>
+      <c r="AH144" s="17"/>
+      <c r="AI144" s="17"/>
+      <c r="AJ144" s="17"/>
+      <c r="AK144" s="17"/>
+      <c r="AL144" s="17"/>
+      <c r="AM144" s="17"/>
+      <c r="AN144" s="17"/>
+      <c r="AO144" s="17"/>
+      <c r="AP144" s="17"/>
+      <c r="AQ144" s="17"/>
+    </row>
+    <row r="145" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D145" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="17"/>
+      <c r="X145" s="17"/>
+      <c r="Y145" s="17"/>
+      <c r="Z145" s="17"/>
+      <c r="AA145" s="17"/>
+      <c r="AB145" s="17"/>
+      <c r="AC145" s="17"/>
+      <c r="AD145" s="17"/>
+      <c r="AE145" s="17"/>
+      <c r="AF145" s="17"/>
+      <c r="AG145" s="17"/>
+      <c r="AH145" s="17"/>
+      <c r="AI145" s="17"/>
+      <c r="AJ145" s="17"/>
+      <c r="AK145" s="17"/>
+      <c r="AL145" s="17"/>
+      <c r="AM145" s="17"/>
+      <c r="AN145" s="17"/>
+      <c r="AO145" s="17"/>
+      <c r="AP145" s="17"/>
+      <c r="AQ145" s="17"/>
+    </row>
+    <row r="146" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D146" s="15"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
+      <c r="R146" s="17"/>
+      <c r="S146" s="17"/>
+      <c r="T146" s="17"/>
+      <c r="U146" s="17"/>
+      <c r="V146" s="17"/>
+      <c r="W146" s="17"/>
+      <c r="X146" s="17"/>
+      <c r="Y146" s="17"/>
+      <c r="Z146" s="17"/>
+      <c r="AA146" s="17"/>
+      <c r="AB146" s="17"/>
+      <c r="AC146" s="17"/>
+      <c r="AD146" s="17"/>
+      <c r="AE146" s="17"/>
+      <c r="AF146" s="17"/>
+      <c r="AG146" s="17"/>
+      <c r="AH146" s="17"/>
+      <c r="AI146" s="17"/>
+      <c r="AJ146" s="17"/>
+      <c r="AK146" s="17"/>
+      <c r="AL146" s="17"/>
+      <c r="AM146" s="17"/>
+      <c r="AN146" s="17"/>
+      <c r="AO146" s="17"/>
+      <c r="AP146" s="17"/>
+      <c r="AQ146" s="17"/>
+    </row>
+    <row r="147" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D147" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
+      <c r="R147" s="17"/>
+      <c r="S147" s="17"/>
+      <c r="T147" s="17"/>
+      <c r="U147" s="17"/>
+      <c r="V147" s="17"/>
+      <c r="W147" s="17"/>
+      <c r="X147" s="17"/>
+      <c r="Y147" s="17"/>
+      <c r="Z147" s="17"/>
+      <c r="AA147" s="17"/>
+      <c r="AB147" s="17"/>
+      <c r="AC147" s="17"/>
+      <c r="AD147" s="17"/>
+      <c r="AE147" s="17"/>
+      <c r="AF147" s="17"/>
+      <c r="AG147" s="17"/>
+      <c r="AH147" s="17"/>
+      <c r="AI147" s="17"/>
+      <c r="AJ147" s="17"/>
+      <c r="AK147" s="17"/>
+      <c r="AL147" s="17"/>
+      <c r="AM147" s="17"/>
+      <c r="AN147" s="17"/>
+      <c r="AO147" s="17"/>
+      <c r="AP147" s="17"/>
+      <c r="AQ147" s="17"/>
+    </row>
+    <row r="148" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D148" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
+      <c r="R148" s="17"/>
+      <c r="S148" s="17"/>
+      <c r="T148" s="17"/>
+      <c r="U148" s="17"/>
+      <c r="V148" s="17"/>
+      <c r="W148" s="17"/>
+      <c r="X148" s="17"/>
+      <c r="Y148" s="17"/>
+      <c r="Z148" s="17"/>
+      <c r="AA148" s="17"/>
+      <c r="AB148" s="17"/>
+      <c r="AC148" s="17"/>
+      <c r="AD148" s="17"/>
+      <c r="AE148" s="17"/>
+      <c r="AF148" s="17"/>
+      <c r="AG148" s="17"/>
+      <c r="AH148" s="17"/>
+      <c r="AI148" s="17"/>
+      <c r="AJ148" s="17"/>
+      <c r="AK148" s="17"/>
+      <c r="AL148" s="17"/>
+      <c r="AM148" s="17"/>
+      <c r="AN148" s="17"/>
+      <c r="AO148" s="17"/>
+      <c r="AP148" s="17"/>
+      <c r="AQ148" s="17"/>
+    </row>
+    <row r="149" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D149" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
+      <c r="R149" s="17"/>
+      <c r="S149" s="17"/>
+      <c r="T149" s="17"/>
+      <c r="U149" s="17"/>
+      <c r="V149" s="17"/>
+      <c r="W149" s="17"/>
+      <c r="X149" s="17"/>
+      <c r="Y149" s="17"/>
+      <c r="Z149" s="17"/>
+      <c r="AA149" s="17"/>
+      <c r="AB149" s="17"/>
+      <c r="AC149" s="17"/>
+      <c r="AD149" s="17"/>
+      <c r="AE149" s="17"/>
+      <c r="AF149" s="17"/>
+      <c r="AG149" s="17"/>
+      <c r="AH149" s="17"/>
+      <c r="AI149" s="17"/>
+      <c r="AJ149" s="17"/>
+      <c r="AK149" s="17"/>
+      <c r="AL149" s="17"/>
+      <c r="AM149" s="17"/>
+      <c r="AN149" s="17"/>
+      <c r="AO149" s="17"/>
+      <c r="AP149" s="17"/>
+      <c r="AQ149" s="17"/>
+    </row>
+    <row r="150" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D150" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
+      <c r="R150" s="17"/>
+      <c r="S150" s="17"/>
+      <c r="T150" s="17"/>
+      <c r="U150" s="17"/>
+      <c r="V150" s="17"/>
+      <c r="W150" s="17"/>
+      <c r="X150" s="17"/>
+      <c r="Y150" s="17"/>
+      <c r="Z150" s="17"/>
+      <c r="AA150" s="17"/>
+      <c r="AB150" s="17"/>
+      <c r="AC150" s="17"/>
+      <c r="AD150" s="17"/>
+      <c r="AE150" s="17"/>
+      <c r="AF150" s="17"/>
+      <c r="AG150" s="17"/>
+      <c r="AH150" s="17"/>
+      <c r="AI150" s="17"/>
+      <c r="AJ150" s="17"/>
+      <c r="AK150" s="17"/>
+      <c r="AL150" s="17"/>
+      <c r="AM150" s="17"/>
+      <c r="AN150" s="17"/>
+      <c r="AO150" s="17"/>
+      <c r="AP150" s="17"/>
+      <c r="AQ150" s="17"/>
+    </row>
+    <row r="151" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D151" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
+      <c r="R151" s="17"/>
+      <c r="S151" s="17"/>
+      <c r="T151" s="17"/>
+      <c r="U151" s="17"/>
+      <c r="V151" s="17"/>
+      <c r="W151" s="17"/>
+      <c r="X151" s="17"/>
+      <c r="Y151" s="17"/>
+      <c r="Z151" s="17"/>
+      <c r="AA151" s="17"/>
+      <c r="AB151" s="17"/>
+      <c r="AC151" s="17"/>
+      <c r="AD151" s="17"/>
+      <c r="AE151" s="17"/>
+      <c r="AF151" s="17"/>
+      <c r="AG151" s="17"/>
+      <c r="AH151" s="17"/>
+      <c r="AI151" s="17"/>
+      <c r="AJ151" s="17"/>
+      <c r="AK151" s="17"/>
+      <c r="AL151" s="17"/>
+      <c r="AM151" s="17"/>
+      <c r="AN151" s="17"/>
+      <c r="AO151" s="17"/>
+      <c r="AP151" s="17"/>
+      <c r="AQ151" s="17"/>
+    </row>
+    <row r="152" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D152" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
+      <c r="P152" s="17"/>
+      <c r="Q152" s="17"/>
+      <c r="R152" s="17"/>
+      <c r="S152" s="17"/>
+      <c r="T152" s="17"/>
+      <c r="U152" s="17"/>
+      <c r="V152" s="17"/>
+      <c r="W152" s="17"/>
+      <c r="X152" s="17"/>
+      <c r="Y152" s="17"/>
+      <c r="Z152" s="17"/>
+      <c r="AA152" s="17"/>
+      <c r="AB152" s="17"/>
+      <c r="AC152" s="17"/>
+      <c r="AD152" s="17"/>
+      <c r="AE152" s="17"/>
+      <c r="AF152" s="17"/>
+      <c r="AG152" s="17"/>
+      <c r="AH152" s="17"/>
+      <c r="AI152" s="17"/>
+      <c r="AJ152" s="17"/>
+      <c r="AK152" s="17"/>
+      <c r="AL152" s="17"/>
+      <c r="AM152" s="17"/>
+      <c r="AN152" s="17"/>
+      <c r="AO152" s="17"/>
+      <c r="AP152" s="17"/>
+      <c r="AQ152" s="17"/>
+    </row>
+    <row r="153" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D153" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="17"/>
+      <c r="P153" s="17"/>
+      <c r="Q153" s="17"/>
+      <c r="R153" s="17"/>
+      <c r="S153" s="17"/>
+      <c r="T153" s="17"/>
+      <c r="U153" s="17"/>
+      <c r="V153" s="17"/>
+      <c r="W153" s="17"/>
+      <c r="X153" s="17"/>
+      <c r="Y153" s="17"/>
+      <c r="Z153" s="17"/>
+      <c r="AA153" s="17"/>
+      <c r="AB153" s="17"/>
+      <c r="AC153" s="17"/>
+      <c r="AD153" s="17"/>
+      <c r="AE153" s="17"/>
+      <c r="AF153" s="17"/>
+      <c r="AG153" s="17"/>
+      <c r="AH153" s="17"/>
+      <c r="AI153" s="17"/>
+      <c r="AJ153" s="17"/>
+      <c r="AK153" s="17"/>
+      <c r="AL153" s="17"/>
+      <c r="AM153" s="17"/>
+      <c r="AN153" s="17"/>
+      <c r="AO153" s="17"/>
+      <c r="AP153" s="17"/>
+      <c r="AQ153" s="17"/>
+    </row>
+    <row r="154" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D154" s="15"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+      <c r="N154" s="17"/>
+      <c r="O154" s="17"/>
+      <c r="P154" s="17"/>
+      <c r="Q154" s="17"/>
+      <c r="R154" s="17"/>
+      <c r="S154" s="17"/>
+      <c r="T154" s="17"/>
+      <c r="U154" s="17"/>
+      <c r="V154" s="17"/>
+      <c r="W154" s="17"/>
+      <c r="X154" s="17"/>
+      <c r="Y154" s="17"/>
+      <c r="Z154" s="17"/>
+      <c r="AA154" s="17"/>
+      <c r="AB154" s="17"/>
+      <c r="AC154" s="17"/>
+      <c r="AD154" s="17"/>
+      <c r="AE154" s="17"/>
+      <c r="AF154" s="17"/>
+      <c r="AG154" s="17"/>
+      <c r="AH154" s="17"/>
+      <c r="AI154" s="17"/>
+      <c r="AJ154" s="17"/>
+      <c r="AK154" s="17"/>
+      <c r="AL154" s="17"/>
+      <c r="AM154" s="17"/>
+      <c r="AN154" s="17"/>
+      <c r="AO154" s="17"/>
+      <c r="AP154" s="17"/>
+      <c r="AQ154" s="17"/>
+    </row>
+    <row r="155" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D155" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
+      <c r="R155" s="17"/>
+      <c r="S155" s="17"/>
+      <c r="T155" s="17"/>
+      <c r="U155" s="17"/>
+      <c r="V155" s="17"/>
+      <c r="W155" s="17"/>
+      <c r="X155" s="17"/>
+      <c r="Y155" s="17"/>
+      <c r="Z155" s="17"/>
+      <c r="AA155" s="17"/>
+      <c r="AB155" s="17"/>
+      <c r="AC155" s="17"/>
+      <c r="AD155" s="17"/>
+      <c r="AE155" s="17"/>
+      <c r="AF155" s="17"/>
+      <c r="AG155" s="17"/>
+      <c r="AH155" s="17"/>
+      <c r="AI155" s="17"/>
+      <c r="AJ155" s="17"/>
+      <c r="AK155" s="17"/>
+      <c r="AL155" s="17"/>
+      <c r="AM155" s="17"/>
+      <c r="AN155" s="17"/>
+      <c r="AO155" s="17"/>
+      <c r="AP155" s="17"/>
+      <c r="AQ155" s="17"/>
+    </row>
+    <row r="156" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D156" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="17"/>
+      <c r="Q156" s="17"/>
+      <c r="R156" s="17"/>
+      <c r="S156" s="17"/>
+      <c r="T156" s="17"/>
+      <c r="U156" s="17"/>
+      <c r="V156" s="17"/>
+      <c r="W156" s="17"/>
+      <c r="X156" s="17"/>
+      <c r="Y156" s="17"/>
+      <c r="Z156" s="17"/>
+      <c r="AA156" s="17"/>
+      <c r="AB156" s="17"/>
+      <c r="AC156" s="17"/>
+      <c r="AD156" s="17"/>
+      <c r="AE156" s="17"/>
+      <c r="AF156" s="17"/>
+      <c r="AG156" s="17"/>
+      <c r="AH156" s="17"/>
+      <c r="AI156" s="17"/>
+      <c r="AJ156" s="17"/>
+      <c r="AK156" s="17"/>
+      <c r="AL156" s="17"/>
+      <c r="AM156" s="17"/>
+      <c r="AN156" s="17"/>
+      <c r="AO156" s="17"/>
+      <c r="AP156" s="17"/>
+      <c r="AQ156" s="17"/>
+    </row>
+    <row r="157" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D157" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
+      <c r="Q157" s="17"/>
+      <c r="R157" s="17"/>
+      <c r="S157" s="17"/>
+      <c r="T157" s="17"/>
+      <c r="U157" s="17"/>
+      <c r="V157" s="17"/>
+      <c r="W157" s="17"/>
+      <c r="X157" s="17"/>
+      <c r="Y157" s="17"/>
+      <c r="Z157" s="17"/>
+      <c r="AA157" s="17"/>
+      <c r="AB157" s="17"/>
+      <c r="AC157" s="17"/>
+      <c r="AD157" s="17"/>
+      <c r="AE157" s="17"/>
+      <c r="AF157" s="17"/>
+      <c r="AG157" s="17"/>
+      <c r="AH157" s="17"/>
+      <c r="AI157" s="17"/>
+      <c r="AJ157" s="17"/>
+      <c r="AK157" s="17"/>
+      <c r="AL157" s="17"/>
+      <c r="AM157" s="17"/>
+      <c r="AN157" s="17"/>
+      <c r="AO157" s="17"/>
+      <c r="AP157" s="17"/>
+      <c r="AQ157" s="17"/>
+    </row>
+    <row r="158" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D158" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="17"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="17"/>
+      <c r="V158" s="17"/>
+      <c r="W158" s="17"/>
+      <c r="X158" s="17"/>
+      <c r="Y158" s="17"/>
+      <c r="Z158" s="17"/>
+      <c r="AA158" s="17"/>
+      <c r="AB158" s="17"/>
+      <c r="AC158" s="17"/>
+      <c r="AD158" s="17"/>
+      <c r="AE158" s="17"/>
+      <c r="AF158" s="17"/>
+      <c r="AG158" s="17"/>
+      <c r="AH158" s="17"/>
+      <c r="AI158" s="17"/>
+      <c r="AJ158" s="17"/>
+      <c r="AK158" s="17"/>
+      <c r="AL158" s="17"/>
+      <c r="AM158" s="17"/>
+      <c r="AN158" s="17"/>
+      <c r="AO158" s="17"/>
+      <c r="AP158" s="17"/>
+      <c r="AQ158" s="17"/>
+    </row>
+    <row r="159" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D159" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="17"/>
+      <c r="Q159" s="17"/>
+      <c r="R159" s="17"/>
+      <c r="S159" s="17"/>
+      <c r="T159" s="17"/>
+      <c r="U159" s="17"/>
+      <c r="V159" s="17"/>
+      <c r="W159" s="17"/>
+      <c r="X159" s="17"/>
+      <c r="Y159" s="17"/>
+      <c r="Z159" s="17"/>
+      <c r="AA159" s="17"/>
+      <c r="AB159" s="17"/>
+      <c r="AC159" s="17"/>
+      <c r="AD159" s="17"/>
+      <c r="AE159" s="17"/>
+      <c r="AF159" s="17"/>
+      <c r="AG159" s="17"/>
+      <c r="AH159" s="17"/>
+      <c r="AI159" s="17"/>
+      <c r="AJ159" s="17"/>
+      <c r="AK159" s="17"/>
+      <c r="AL159" s="17"/>
+      <c r="AM159" s="17"/>
+      <c r="AN159" s="17"/>
+      <c r="AO159" s="17"/>
+      <c r="AP159" s="17"/>
+      <c r="AQ159" s="17"/>
+    </row>
+    <row r="161" spans="3:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C161" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="3:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C162" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="3:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C163" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="3:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C164" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D165" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
+      <c r="P165" s="17"/>
+      <c r="Q165" s="17"/>
+      <c r="R165" s="17"/>
+      <c r="S165" s="17"/>
+      <c r="T165" s="17"/>
+      <c r="U165" s="17"/>
+      <c r="V165" s="17"/>
+      <c r="W165" s="17"/>
+      <c r="X165" s="17"/>
+      <c r="Y165" s="17"/>
+      <c r="Z165" s="17"/>
+      <c r="AA165" s="17"/>
+      <c r="AB165" s="17"/>
+      <c r="AC165" s="17"/>
+      <c r="AD165" s="17"/>
+      <c r="AE165" s="17"/>
+      <c r="AF165" s="17"/>
+      <c r="AG165" s="17"/>
+      <c r="AH165" s="17"/>
+      <c r="AI165" s="17"/>
+      <c r="AJ165" s="17"/>
+      <c r="AK165" s="17"/>
+      <c r="AL165" s="17"/>
+      <c r="AM165" s="17"/>
+      <c r="AN165" s="17"/>
+      <c r="AO165" s="17"/>
+      <c r="AP165" s="17"/>
+      <c r="AQ165" s="17"/>
+    </row>
+    <row r="166" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D166" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
+      <c r="N166" s="17"/>
+      <c r="O166" s="17"/>
+      <c r="P166" s="17"/>
+      <c r="Q166" s="17"/>
+      <c r="R166" s="17"/>
+      <c r="S166" s="17"/>
+      <c r="T166" s="17"/>
+      <c r="U166" s="17"/>
+      <c r="V166" s="17"/>
+      <c r="W166" s="17"/>
+      <c r="X166" s="17"/>
+      <c r="Y166" s="17"/>
+      <c r="Z166" s="17"/>
+      <c r="AA166" s="17"/>
+      <c r="AB166" s="17"/>
+      <c r="AC166" s="17"/>
+      <c r="AD166" s="17"/>
+      <c r="AE166" s="17"/>
+      <c r="AF166" s="17"/>
+      <c r="AG166" s="17"/>
+      <c r="AH166" s="17"/>
+      <c r="AI166" s="17"/>
+      <c r="AJ166" s="17"/>
+      <c r="AK166" s="17"/>
+      <c r="AL166" s="17"/>
+      <c r="AM166" s="17"/>
+      <c r="AN166" s="17"/>
+      <c r="AO166" s="17"/>
+      <c r="AP166" s="17"/>
+      <c r="AQ166" s="17"/>
+    </row>
+    <row r="167" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D167" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
+      <c r="P167" s="17"/>
+      <c r="Q167" s="17"/>
+      <c r="R167" s="17"/>
+      <c r="S167" s="17"/>
+      <c r="T167" s="17"/>
+      <c r="U167" s="17"/>
+      <c r="V167" s="17"/>
+      <c r="W167" s="17"/>
+      <c r="X167" s="17"/>
+      <c r="Y167" s="17"/>
+      <c r="Z167" s="17"/>
+      <c r="AA167" s="17"/>
+      <c r="AB167" s="17"/>
+      <c r="AC167" s="17"/>
+      <c r="AD167" s="17"/>
+      <c r="AE167" s="17"/>
+      <c r="AF167" s="17"/>
+      <c r="AG167" s="17"/>
+      <c r="AH167" s="17"/>
+      <c r="AI167" s="17"/>
+      <c r="AJ167" s="17"/>
+      <c r="AK167" s="17"/>
+      <c r="AL167" s="17"/>
+      <c r="AM167" s="17"/>
+      <c r="AN167" s="17"/>
+      <c r="AO167" s="17"/>
+      <c r="AP167" s="17"/>
+      <c r="AQ167" s="17"/>
+    </row>
+    <row r="168" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D168" s="15"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17"/>
+      <c r="N168" s="17"/>
+      <c r="O168" s="17"/>
+      <c r="P168" s="17"/>
+      <c r="Q168" s="17"/>
+      <c r="R168" s="17"/>
+      <c r="S168" s="17"/>
+      <c r="T168" s="17"/>
+      <c r="U168" s="17"/>
+      <c r="V168" s="17"/>
+      <c r="W168" s="17"/>
+      <c r="X168" s="17"/>
+      <c r="Y168" s="17"/>
+      <c r="Z168" s="17"/>
+      <c r="AA168" s="17"/>
+      <c r="AB168" s="17"/>
+      <c r="AC168" s="17"/>
+      <c r="AD168" s="17"/>
+      <c r="AE168" s="17"/>
+      <c r="AF168" s="17"/>
+      <c r="AG168" s="17"/>
+      <c r="AH168" s="17"/>
+      <c r="AI168" s="17"/>
+      <c r="AJ168" s="17"/>
+      <c r="AK168" s="17"/>
+      <c r="AL168" s="17"/>
+      <c r="AM168" s="17"/>
+      <c r="AN168" s="17"/>
+      <c r="AO168" s="17"/>
+      <c r="AP168" s="17"/>
+      <c r="AQ168" s="17"/>
+    </row>
+    <row r="169" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D169" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="17"/>
+      <c r="N169" s="17"/>
+      <c r="O169" s="17"/>
+      <c r="P169" s="17"/>
+      <c r="Q169" s="17"/>
+      <c r="R169" s="17"/>
+      <c r="S169" s="17"/>
+      <c r="T169" s="17"/>
+      <c r="U169" s="17"/>
+      <c r="V169" s="17"/>
+      <c r="W169" s="17"/>
+      <c r="X169" s="17"/>
+      <c r="Y169" s="17"/>
+      <c r="Z169" s="17"/>
+      <c r="AA169" s="17"/>
+      <c r="AB169" s="17"/>
+      <c r="AC169" s="17"/>
+      <c r="AD169" s="17"/>
+      <c r="AE169" s="17"/>
+      <c r="AF169" s="17"/>
+      <c r="AG169" s="17"/>
+      <c r="AH169" s="17"/>
+      <c r="AI169" s="17"/>
+      <c r="AJ169" s="17"/>
+      <c r="AK169" s="17"/>
+      <c r="AL169" s="17"/>
+      <c r="AM169" s="17"/>
+      <c r="AN169" s="17"/>
+      <c r="AO169" s="17"/>
+      <c r="AP169" s="17"/>
+      <c r="AQ169" s="17"/>
+    </row>
+    <row r="170" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D170" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+      <c r="M170" s="17"/>
+      <c r="N170" s="17"/>
+      <c r="O170" s="17"/>
+      <c r="P170" s="17"/>
+      <c r="Q170" s="17"/>
+      <c r="R170" s="17"/>
+      <c r="S170" s="17"/>
+      <c r="T170" s="17"/>
+      <c r="U170" s="17"/>
+      <c r="V170" s="17"/>
+      <c r="W170" s="17"/>
+      <c r="X170" s="17"/>
+      <c r="Y170" s="17"/>
+      <c r="Z170" s="17"/>
+      <c r="AA170" s="17"/>
+      <c r="AB170" s="17"/>
+      <c r="AC170" s="17"/>
+      <c r="AD170" s="17"/>
+      <c r="AE170" s="17"/>
+      <c r="AF170" s="17"/>
+      <c r="AG170" s="17"/>
+      <c r="AH170" s="17"/>
+      <c r="AI170" s="17"/>
+      <c r="AJ170" s="17"/>
+      <c r="AK170" s="17"/>
+      <c r="AL170" s="17"/>
+      <c r="AM170" s="17"/>
+      <c r="AN170" s="17"/>
+      <c r="AO170" s="17"/>
+      <c r="AP170" s="17"/>
+      <c r="AQ170" s="17"/>
+    </row>
+    <row r="171" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D171" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17"/>
+      <c r="N171" s="17"/>
+      <c r="O171" s="17"/>
+      <c r="P171" s="17"/>
+      <c r="Q171" s="17"/>
+      <c r="R171" s="17"/>
+      <c r="S171" s="17"/>
+      <c r="T171" s="17"/>
+      <c r="U171" s="17"/>
+      <c r="V171" s="17"/>
+      <c r="W171" s="17"/>
+      <c r="X171" s="17"/>
+      <c r="Y171" s="17"/>
+      <c r="Z171" s="17"/>
+      <c r="AA171" s="17"/>
+      <c r="AB171" s="17"/>
+      <c r="AC171" s="17"/>
+      <c r="AD171" s="17"/>
+      <c r="AE171" s="17"/>
+      <c r="AF171" s="17"/>
+      <c r="AG171" s="17"/>
+      <c r="AH171" s="17"/>
+      <c r="AI171" s="17"/>
+      <c r="AJ171" s="17"/>
+      <c r="AK171" s="17"/>
+      <c r="AL171" s="17"/>
+      <c r="AM171" s="17"/>
+      <c r="AN171" s="17"/>
+      <c r="AO171" s="17"/>
+      <c r="AP171" s="17"/>
+      <c r="AQ171" s="17"/>
+    </row>
+    <row r="172" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D172" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="17"/>
+      <c r="O172" s="17"/>
+      <c r="P172" s="17"/>
+      <c r="Q172" s="17"/>
+      <c r="R172" s="17"/>
+      <c r="S172" s="17"/>
+      <c r="T172" s="17"/>
+      <c r="U172" s="17"/>
+      <c r="V172" s="17"/>
+      <c r="W172" s="17"/>
+      <c r="X172" s="17"/>
+      <c r="Y172" s="17"/>
+      <c r="Z172" s="17"/>
+      <c r="AA172" s="17"/>
+      <c r="AB172" s="17"/>
+      <c r="AC172" s="17"/>
+      <c r="AD172" s="17"/>
+      <c r="AE172" s="17"/>
+      <c r="AF172" s="17"/>
+      <c r="AG172" s="17"/>
+      <c r="AH172" s="17"/>
+      <c r="AI172" s="17"/>
+      <c r="AJ172" s="17"/>
+      <c r="AK172" s="17"/>
+      <c r="AL172" s="17"/>
+      <c r="AM172" s="17"/>
+      <c r="AN172" s="17"/>
+      <c r="AO172" s="17"/>
+      <c r="AP172" s="17"/>
+      <c r="AQ172" s="17"/>
+    </row>
+    <row r="173" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D173" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+      <c r="S173" s="17"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="17"/>
+      <c r="V173" s="17"/>
+      <c r="W173" s="17"/>
+      <c r="X173" s="17"/>
+      <c r="Y173" s="17"/>
+      <c r="Z173" s="17"/>
+      <c r="AA173" s="17"/>
+      <c r="AB173" s="17"/>
+      <c r="AC173" s="17"/>
+      <c r="AD173" s="17"/>
+      <c r="AE173" s="17"/>
+      <c r="AF173" s="17"/>
+      <c r="AG173" s="17"/>
+      <c r="AH173" s="17"/>
+      <c r="AI173" s="17"/>
+      <c r="AJ173" s="17"/>
+      <c r="AK173" s="17"/>
+      <c r="AL173" s="17"/>
+      <c r="AM173" s="17"/>
+      <c r="AN173" s="17"/>
+      <c r="AO173" s="17"/>
+      <c r="AP173" s="17"/>
+      <c r="AQ173" s="17"/>
+    </row>
+    <row r="174" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D174" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17"/>
+      <c r="N174" s="17"/>
+      <c r="O174" s="17"/>
+      <c r="P174" s="17"/>
+      <c r="Q174" s="17"/>
+      <c r="R174" s="17"/>
+      <c r="S174" s="17"/>
+      <c r="T174" s="17"/>
+      <c r="U174" s="17"/>
+      <c r="V174" s="17"/>
+      <c r="W174" s="17"/>
+      <c r="X174" s="17"/>
+      <c r="Y174" s="17"/>
+      <c r="Z174" s="17"/>
+      <c r="AA174" s="17"/>
+      <c r="AB174" s="17"/>
+      <c r="AC174" s="17"/>
+      <c r="AD174" s="17"/>
+      <c r="AE174" s="17"/>
+      <c r="AF174" s="17"/>
+      <c r="AG174" s="17"/>
+      <c r="AH174" s="17"/>
+      <c r="AI174" s="17"/>
+      <c r="AJ174" s="17"/>
+      <c r="AK174" s="17"/>
+      <c r="AL174" s="17"/>
+      <c r="AM174" s="17"/>
+      <c r="AN174" s="17"/>
+      <c r="AO174" s="17"/>
+      <c r="AP174" s="17"/>
+      <c r="AQ174" s="17"/>
+    </row>
+    <row r="175" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D175" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+      <c r="M175" s="17"/>
+      <c r="N175" s="17"/>
+      <c r="O175" s="17"/>
+      <c r="P175" s="17"/>
+      <c r="Q175" s="17"/>
+      <c r="R175" s="17"/>
+      <c r="S175" s="17"/>
+      <c r="T175" s="17"/>
+      <c r="U175" s="17"/>
+      <c r="V175" s="17"/>
+      <c r="W175" s="17"/>
+      <c r="X175" s="17"/>
+      <c r="Y175" s="17"/>
+      <c r="Z175" s="17"/>
+      <c r="AA175" s="17"/>
+      <c r="AB175" s="17"/>
+      <c r="AC175" s="17"/>
+      <c r="AD175" s="17"/>
+      <c r="AE175" s="17"/>
+      <c r="AF175" s="17"/>
+      <c r="AG175" s="17"/>
+      <c r="AH175" s="17"/>
+      <c r="AI175" s="17"/>
+      <c r="AJ175" s="17"/>
+      <c r="AK175" s="17"/>
+      <c r="AL175" s="17"/>
+      <c r="AM175" s="17"/>
+      <c r="AN175" s="17"/>
+      <c r="AO175" s="17"/>
+      <c r="AP175" s="17"/>
+      <c r="AQ175" s="17"/>
+    </row>
+    <row r="176" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D176" s="15"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
+      <c r="M176" s="17"/>
+      <c r="N176" s="17"/>
+      <c r="O176" s="17"/>
+      <c r="P176" s="17"/>
+      <c r="Q176" s="17"/>
+      <c r="R176" s="17"/>
+      <c r="S176" s="17"/>
+      <c r="T176" s="17"/>
+      <c r="U176" s="17"/>
+      <c r="V176" s="17"/>
+      <c r="W176" s="17"/>
+      <c r="X176" s="17"/>
+      <c r="Y176" s="17"/>
+      <c r="Z176" s="17"/>
+      <c r="AA176" s="17"/>
+      <c r="AB176" s="17"/>
+      <c r="AC176" s="17"/>
+      <c r="AD176" s="17"/>
+      <c r="AE176" s="17"/>
+      <c r="AF176" s="17"/>
+      <c r="AG176" s="17"/>
+      <c r="AH176" s="17"/>
+      <c r="AI176" s="17"/>
+      <c r="AJ176" s="17"/>
+      <c r="AK176" s="17"/>
+      <c r="AL176" s="17"/>
+      <c r="AM176" s="17"/>
+      <c r="AN176" s="17"/>
+      <c r="AO176" s="17"/>
+      <c r="AP176" s="17"/>
+      <c r="AQ176" s="17"/>
+    </row>
+    <row r="177" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D177" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
+      <c r="P177" s="17"/>
+      <c r="Q177" s="17"/>
+      <c r="R177" s="17"/>
+      <c r="S177" s="17"/>
+      <c r="T177" s="17"/>
+      <c r="U177" s="17"/>
+      <c r="V177" s="17"/>
+      <c r="W177" s="17"/>
+      <c r="X177" s="17"/>
+      <c r="Y177" s="17"/>
+      <c r="Z177" s="17"/>
+      <c r="AA177" s="17"/>
+      <c r="AB177" s="17"/>
+      <c r="AC177" s="17"/>
+      <c r="AD177" s="17"/>
+      <c r="AE177" s="17"/>
+      <c r="AF177" s="17"/>
+      <c r="AG177" s="17"/>
+      <c r="AH177" s="17"/>
+      <c r="AI177" s="17"/>
+      <c r="AJ177" s="17"/>
+      <c r="AK177" s="17"/>
+      <c r="AL177" s="17"/>
+      <c r="AM177" s="17"/>
+      <c r="AN177" s="17"/>
+      <c r="AO177" s="17"/>
+      <c r="AP177" s="17"/>
+      <c r="AQ177" s="17"/>
+    </row>
+    <row r="178" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D178" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="17"/>
+      <c r="O178" s="17"/>
+      <c r="P178" s="17"/>
+      <c r="Q178" s="17"/>
+      <c r="R178" s="17"/>
+      <c r="S178" s="17"/>
+      <c r="T178" s="17"/>
+      <c r="U178" s="17"/>
+      <c r="V178" s="17"/>
+      <c r="W178" s="17"/>
+      <c r="X178" s="17"/>
+      <c r="Y178" s="17"/>
+      <c r="Z178" s="17"/>
+      <c r="AA178" s="17"/>
+      <c r="AB178" s="17"/>
+      <c r="AC178" s="17"/>
+      <c r="AD178" s="17"/>
+      <c r="AE178" s="17"/>
+      <c r="AF178" s="17"/>
+      <c r="AG178" s="17"/>
+      <c r="AH178" s="17"/>
+      <c r="AI178" s="17"/>
+      <c r="AJ178" s="17"/>
+      <c r="AK178" s="17"/>
+      <c r="AL178" s="17"/>
+      <c r="AM178" s="17"/>
+      <c r="AN178" s="17"/>
+      <c r="AO178" s="17"/>
+      <c r="AP178" s="17"/>
+      <c r="AQ178" s="17"/>
+    </row>
+    <row r="179" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D179" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
+      <c r="N179" s="17"/>
+      <c r="O179" s="17"/>
+      <c r="P179" s="17"/>
+      <c r="Q179" s="17"/>
+      <c r="R179" s="17"/>
+      <c r="S179" s="17"/>
+      <c r="T179" s="17"/>
+      <c r="U179" s="17"/>
+      <c r="V179" s="17"/>
+      <c r="W179" s="17"/>
+      <c r="X179" s="17"/>
+      <c r="Y179" s="17"/>
+      <c r="Z179" s="17"/>
+      <c r="AA179" s="17"/>
+      <c r="AB179" s="17"/>
+      <c r="AC179" s="17"/>
+      <c r="AD179" s="17"/>
+      <c r="AE179" s="17"/>
+      <c r="AF179" s="17"/>
+      <c r="AG179" s="17"/>
+      <c r="AH179" s="17"/>
+      <c r="AI179" s="17"/>
+      <c r="AJ179" s="17"/>
+      <c r="AK179" s="17"/>
+      <c r="AL179" s="17"/>
+      <c r="AM179" s="17"/>
+      <c r="AN179" s="17"/>
+      <c r="AO179" s="17"/>
+      <c r="AP179" s="17"/>
+      <c r="AQ179" s="17"/>
+    </row>
+    <row r="180" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D180" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+      <c r="M180" s="17"/>
+      <c r="N180" s="17"/>
+      <c r="O180" s="17"/>
+      <c r="P180" s="17"/>
+      <c r="Q180" s="17"/>
+      <c r="R180" s="17"/>
+      <c r="S180" s="17"/>
+      <c r="T180" s="17"/>
+      <c r="U180" s="17"/>
+      <c r="V180" s="17"/>
+      <c r="W180" s="17"/>
+      <c r="X180" s="17"/>
+      <c r="Y180" s="17"/>
+      <c r="Z180" s="17"/>
+      <c r="AA180" s="17"/>
+      <c r="AB180" s="17"/>
+      <c r="AC180" s="17"/>
+      <c r="AD180" s="17"/>
+      <c r="AE180" s="17"/>
+      <c r="AF180" s="17"/>
+      <c r="AG180" s="17"/>
+      <c r="AH180" s="17"/>
+      <c r="AI180" s="17"/>
+      <c r="AJ180" s="17"/>
+      <c r="AK180" s="17"/>
+      <c r="AL180" s="17"/>
+      <c r="AM180" s="17"/>
+      <c r="AN180" s="17"/>
+      <c r="AO180" s="17"/>
+      <c r="AP180" s="17"/>
+      <c r="AQ180" s="17"/>
+    </row>
+    <row r="181" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="D181" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
+      <c r="N181" s="17"/>
+      <c r="O181" s="17"/>
+      <c r="P181" s="17"/>
+      <c r="Q181" s="17"/>
+      <c r="R181" s="17"/>
+      <c r="S181" s="17"/>
+      <c r="T181" s="17"/>
+      <c r="U181" s="17"/>
+      <c r="V181" s="17"/>
+      <c r="W181" s="17"/>
+      <c r="X181" s="17"/>
+      <c r="Y181" s="17"/>
+      <c r="Z181" s="17"/>
+      <c r="AA181" s="17"/>
+      <c r="AB181" s="17"/>
+      <c r="AC181" s="17"/>
+      <c r="AD181" s="17"/>
+      <c r="AE181" s="17"/>
+      <c r="AF181" s="17"/>
+      <c r="AG181" s="17"/>
+      <c r="AH181" s="17"/>
+      <c r="AI181" s="17"/>
+      <c r="AJ181" s="17"/>
+      <c r="AK181" s="17"/>
+      <c r="AL181" s="17"/>
+      <c r="AM181" s="17"/>
+      <c r="AN181" s="17"/>
+      <c r="AO181" s="17"/>
+      <c r="AP181" s="17"/>
+      <c r="AQ181" s="17"/>
+    </row>
+    <row r="183" spans="3:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C183" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="3:43" ht="15" x14ac:dyDescent="0.35">
+      <c r="C184" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>